--- a/matlab/processeddata/IAD_GTU.xlsx
+++ b/matlab/processeddata/IAD_GTU.xlsx
@@ -15148,10 +15148,10 @@
         <v>11.483333333333333</v>
       </c>
       <c r="U419">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V419">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="420" spans="1:22" x14ac:dyDescent="0.3">
@@ -15248,10 +15248,10 @@
         <v>11.483333333333333</v>
       </c>
       <c r="U421">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V421">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="422" spans="1:22" x14ac:dyDescent="0.3">
@@ -15348,10 +15348,10 @@
         <v>11.483333333333333</v>
       </c>
       <c r="U423">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V423">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="424" spans="1:22" x14ac:dyDescent="0.3">
@@ -15448,10 +15448,10 @@
         <v>17.883333333333333</v>
       </c>
       <c r="U425">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V425">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="426" spans="1:22" x14ac:dyDescent="0.3">
@@ -15548,10 +15548,10 @@
         <v>17.883333333333333</v>
       </c>
       <c r="U427">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V427">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="428" spans="1:22" x14ac:dyDescent="0.3">
@@ -15648,10 +15648,10 @@
         <v>12.983333333333333</v>
       </c>
       <c r="U429">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V429">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="430" spans="1:22" x14ac:dyDescent="0.3">
@@ -15748,7 +15748,7 @@
         <v>8.6833333333333336</v>
       </c>
       <c r="U431">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V431">
         <v>4</v>
@@ -15798,10 +15798,10 @@
         <v>12.983333333333333</v>
       </c>
       <c r="U432">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V432">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="433" spans="1:22" x14ac:dyDescent="0.3">
@@ -15848,7 +15848,7 @@
         <v>8.6833333333333336</v>
       </c>
       <c r="U433">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V433">
         <v>4</v>
@@ -15898,10 +15898,10 @@
         <v>12.983333333333333</v>
       </c>
       <c r="U434">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V434">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="435" spans="1:22" x14ac:dyDescent="0.3">
@@ -15998,10 +15998,10 @@
         <v>13.683333333333334</v>
       </c>
       <c r="U436">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V436">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="437" spans="1:22" x14ac:dyDescent="0.3">
@@ -16098,10 +16098,10 @@
         <v>18.483333333333334</v>
       </c>
       <c r="U438">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V438">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="439" spans="1:22" x14ac:dyDescent="0.3">
@@ -16198,10 +16198,10 @@
         <v>15.783333333333333</v>
       </c>
       <c r="U440">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V440">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="441" spans="1:22" x14ac:dyDescent="0.3">
@@ -16248,10 +16248,10 @@
         <v>15.783333333333333</v>
       </c>
       <c r="U441">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V441">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="442" spans="1:22" x14ac:dyDescent="0.3">
@@ -16348,10 +16348,10 @@
         <v>15.783333333333333</v>
       </c>
       <c r="U443">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V443">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="444" spans="1:22" x14ac:dyDescent="0.3">
@@ -16448,10 +16448,10 @@
         <v>17.883333333333333</v>
       </c>
       <c r="U445">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V445">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="446" spans="1:22" x14ac:dyDescent="0.3">
@@ -16548,10 +16548,10 @@
         <v>17.883333333333333</v>
       </c>
       <c r="U447">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V447">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="448" spans="1:22" x14ac:dyDescent="0.3">
@@ -16648,10 +16648,10 @@
         <v>15.783333333333333</v>
       </c>
       <c r="U449">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V449">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="450" spans="1:22" x14ac:dyDescent="0.3">
@@ -16748,10 +16748,10 @@
         <v>12.983333333333333</v>
       </c>
       <c r="U451">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V451">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="452" spans="1:22" x14ac:dyDescent="0.3">
@@ -16848,7 +16848,7 @@
         <v>8.6833333333333336</v>
       </c>
       <c r="U453">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V453">
         <v>4</v>
@@ -16898,10 +16898,10 @@
         <v>12.983333333333333</v>
       </c>
       <c r="U454">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V454">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="455" spans="1:22" x14ac:dyDescent="0.3">
@@ -16948,7 +16948,7 @@
         <v>8.6833333333333336</v>
       </c>
       <c r="U455">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V455">
         <v>4</v>
@@ -16998,10 +16998,10 @@
         <v>18.483333333333334</v>
       </c>
       <c r="U456">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V456">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="457" spans="1:22" x14ac:dyDescent="0.3">
@@ -17048,7 +17048,7 @@
         <v>8.6833333333333336</v>
       </c>
       <c r="U457">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V457">
         <v>4</v>
@@ -17098,10 +17098,10 @@
         <v>18.483333333333334</v>
       </c>
       <c r="U458">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V458">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="459" spans="1:22" x14ac:dyDescent="0.3">
@@ -17148,7 +17148,7 @@
         <v>8.6833333333333336</v>
       </c>
       <c r="U459">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V459">
         <v>4</v>
@@ -17198,10 +17198,10 @@
         <v>12.983333333333333</v>
       </c>
       <c r="U460">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V460">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="461" spans="1:22" x14ac:dyDescent="0.3">
@@ -17248,7 +17248,7 @@
         <v>8.6833333333333336</v>
       </c>
       <c r="U461">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V461">
         <v>4</v>
@@ -17298,10 +17298,10 @@
         <v>12.983333333333333</v>
       </c>
       <c r="U462">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V462">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="463" spans="1:22" x14ac:dyDescent="0.3">
@@ -17348,7 +17348,7 @@
         <v>8.6833333333333336</v>
       </c>
       <c r="U463">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V463">
         <v>4</v>
@@ -17398,10 +17398,10 @@
         <v>18.483333333333334</v>
       </c>
       <c r="U464">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V464">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="465" spans="1:22" x14ac:dyDescent="0.3">
@@ -17448,7 +17448,7 @@
         <v>8.6833333333333336</v>
       </c>
       <c r="U465">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V465">
         <v>4</v>
@@ -17498,10 +17498,10 @@
         <v>12.983333333333333</v>
       </c>
       <c r="U466">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V466">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="467" spans="1:22" x14ac:dyDescent="0.3">
@@ -17548,7 +17548,7 @@
         <v>8.6833333333333336</v>
       </c>
       <c r="U467">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V467">
         <v>4</v>
@@ -17598,10 +17598,10 @@
         <v>12.983333333333333</v>
       </c>
       <c r="U468">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V468">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="469" spans="1:22" x14ac:dyDescent="0.3">
@@ -17648,7 +17648,7 @@
         <v>8.6833333333333336</v>
       </c>
       <c r="U469">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V469">
         <v>4</v>
@@ -17698,10 +17698,10 @@
         <v>18.483333333333334</v>
       </c>
       <c r="U470">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V470">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="471" spans="1:22" x14ac:dyDescent="0.3">
@@ -17748,7 +17748,7 @@
         <v>8.6833333333333336</v>
       </c>
       <c r="U471">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V471">
         <v>4</v>
@@ -17798,10 +17798,10 @@
         <v>18.483333333333334</v>
       </c>
       <c r="U472">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V472">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="473" spans="1:22" x14ac:dyDescent="0.3">
@@ -17848,7 +17848,7 @@
         <v>8.6833333333333336</v>
       </c>
       <c r="U473">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V473">
         <v>4</v>
@@ -17898,10 +17898,10 @@
         <v>12.983333333333333</v>
       </c>
       <c r="U474">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V474">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="475" spans="1:22" x14ac:dyDescent="0.3">
@@ -17948,7 +17948,7 @@
         <v>8.6833333333333336</v>
       </c>
       <c r="U475">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V475">
         <v>4</v>
@@ -17998,10 +17998,10 @@
         <v>12.983333333333333</v>
       </c>
       <c r="U476">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V476">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="477" spans="1:22" x14ac:dyDescent="0.3">
@@ -18048,7 +18048,7 @@
         <v>8.6833333333333336</v>
       </c>
       <c r="U477">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V477">
         <v>4</v>
@@ -18098,10 +18098,10 @@
         <v>18.483333333333334</v>
       </c>
       <c r="U478">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V478">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="479" spans="1:22" x14ac:dyDescent="0.3">
@@ -18148,7 +18148,7 @@
         <v>8.6833333333333336</v>
       </c>
       <c r="U479">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V479">
         <v>4</v>
@@ -18198,10 +18198,10 @@
         <v>18.483333333333334</v>
       </c>
       <c r="U480">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V480">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="481" spans="1:22" x14ac:dyDescent="0.3">
@@ -18248,7 +18248,7 @@
         <v>8.6833333333333336</v>
       </c>
       <c r="U481">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V481">
         <v>4</v>
@@ -18298,10 +18298,10 @@
         <v>12.983333333333333</v>
       </c>
       <c r="U482">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V482">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="483" spans="1:22" x14ac:dyDescent="0.3">
@@ -18348,7 +18348,7 @@
         <v>8.6833333333333336</v>
       </c>
       <c r="U483">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V483">
         <v>4</v>
@@ -18398,10 +18398,10 @@
         <v>12.983333333333333</v>
       </c>
       <c r="U484">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V484">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="485" spans="1:22" x14ac:dyDescent="0.3">
@@ -18448,7 +18448,7 @@
         <v>8.6833333333333336</v>
       </c>
       <c r="U485">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V485">
         <v>4</v>
@@ -18498,10 +18498,10 @@
         <v>18.483333333333334</v>
       </c>
       <c r="U486">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V486">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="487" spans="1:22" x14ac:dyDescent="0.3">
@@ -18548,7 +18548,7 @@
         <v>8.6833333333333336</v>
       </c>
       <c r="U487">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V487">
         <v>4</v>
@@ -18598,10 +18598,10 @@
         <v>12.983333333333333</v>
       </c>
       <c r="U488">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V488">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="489" spans="1:22" x14ac:dyDescent="0.3">
@@ -18648,7 +18648,7 @@
         <v>8.6833333333333336</v>
       </c>
       <c r="U489">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V489">
         <v>4</v>
@@ -18698,10 +18698,10 @@
         <v>12.983333333333333</v>
       </c>
       <c r="U490">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V490">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="491" spans="1:22" x14ac:dyDescent="0.3">
@@ -18748,7 +18748,7 @@
         <v>8.6833333333333336</v>
       </c>
       <c r="U491">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V491">
         <v>4</v>
@@ -18798,10 +18798,10 @@
         <v>12.983333333333333</v>
       </c>
       <c r="U492">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V492">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="493" spans="1:22" x14ac:dyDescent="0.3">
@@ -18848,7 +18848,7 @@
         <v>8.6833333333333336</v>
       </c>
       <c r="U493">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V493">
         <v>4</v>
@@ -18898,10 +18898,10 @@
         <v>18.483333333333334</v>
       </c>
       <c r="U494">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V494">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="495" spans="1:22" x14ac:dyDescent="0.3">
@@ -18948,7 +18948,7 @@
         <v>8.6833333333333336</v>
       </c>
       <c r="U495">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V495">
         <v>4</v>
@@ -18998,10 +18998,10 @@
         <v>18.483333333333334</v>
       </c>
       <c r="U496">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V496">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="497" spans="1:22" x14ac:dyDescent="0.3">
@@ -19048,7 +19048,7 @@
         <v>8.6833333333333336</v>
       </c>
       <c r="U497">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V497">
         <v>4</v>
@@ -19098,10 +19098,10 @@
         <v>12.983333333333333</v>
       </c>
       <c r="U498">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V498">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="499" spans="1:22" x14ac:dyDescent="0.3">
@@ -19148,7 +19148,7 @@
         <v>8.6833333333333336</v>
       </c>
       <c r="U499">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V499">
         <v>4</v>
@@ -19198,10 +19198,10 @@
         <v>12.983333333333333</v>
       </c>
       <c r="U500">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V500">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="501" spans="1:22" x14ac:dyDescent="0.3">
@@ -19248,10 +19248,10 @@
         <v>12.983333333333333</v>
       </c>
       <c r="U501">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V501">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="502" spans="1:22" x14ac:dyDescent="0.3">
@@ -19348,10 +19348,10 @@
         <v>17.883333333333333</v>
       </c>
       <c r="U503">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V503">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="504" spans="1:22" x14ac:dyDescent="0.3">
@@ -19448,10 +19448,10 @@
         <v>12.983333333333333</v>
       </c>
       <c r="U505">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V505">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="506" spans="1:22" x14ac:dyDescent="0.3">
@@ -19548,10 +19548,10 @@
         <v>17.883333333333333</v>
       </c>
       <c r="U507">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V507">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="508" spans="1:22" x14ac:dyDescent="0.3">
@@ -19648,10 +19648,10 @@
         <v>17.883333333333333</v>
       </c>
       <c r="U509">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V509">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="510" spans="1:22" x14ac:dyDescent="0.3">
@@ -19748,10 +19748,10 @@
         <v>17.883333333333333</v>
       </c>
       <c r="U511">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V511">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="512" spans="1:22" x14ac:dyDescent="0.3">
@@ -19848,10 +19848,10 @@
         <v>14.383333333333333</v>
       </c>
       <c r="U513">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V513">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="514" spans="1:22" x14ac:dyDescent="0.3">
@@ -19948,10 +19948,10 @@
         <v>17.883333333333333</v>
       </c>
       <c r="U515">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V515">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="516" spans="1:22" x14ac:dyDescent="0.3">
@@ -20098,10 +20098,10 @@
         <v>14.383333333333333</v>
       </c>
       <c r="U518">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V518">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="519" spans="1:22" x14ac:dyDescent="0.3">
@@ -20198,10 +20198,10 @@
         <v>13.683333333333334</v>
       </c>
       <c r="U520">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V520">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="521" spans="1:22" x14ac:dyDescent="0.3">
@@ -20248,10 +20248,10 @@
         <v>17.883333333333333</v>
       </c>
       <c r="U521">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V521">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="522" spans="1:22" x14ac:dyDescent="0.3">
@@ -20348,10 +20348,10 @@
         <v>13.683333333333334</v>
       </c>
       <c r="U523">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V523">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="524" spans="1:22" x14ac:dyDescent="0.3">
@@ -20448,10 +20448,10 @@
         <v>17.883333333333333</v>
       </c>
       <c r="U525">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V525">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="526" spans="1:22" x14ac:dyDescent="0.3">
@@ -20548,10 +20548,10 @@
         <v>11.483333333333333</v>
       </c>
       <c r="U527">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V527">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="528" spans="1:22" x14ac:dyDescent="0.3">
@@ -20648,10 +20648,10 @@
         <v>17.883333333333333</v>
       </c>
       <c r="U529">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V529">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="530" spans="1:22" x14ac:dyDescent="0.3">
@@ -20748,10 +20748,10 @@
         <v>17.883333333333333</v>
       </c>
       <c r="U531">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V531">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="532" spans="1:22" x14ac:dyDescent="0.3">
@@ -20848,10 +20848,10 @@
         <v>17.883333333333333</v>
       </c>
       <c r="U533">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V533">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="534" spans="1:22" x14ac:dyDescent="0.3">
@@ -20948,7 +20948,7 @@
         <v>8.6833333333333336</v>
       </c>
       <c r="U535">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V535">
         <v>4</v>
@@ -20998,10 +20998,10 @@
         <v>18.483333333333334</v>
       </c>
       <c r="U536">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V536">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="537" spans="1:22" x14ac:dyDescent="0.3">
@@ -21048,7 +21048,7 @@
         <v>8.6833333333333336</v>
       </c>
       <c r="U537">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V537">
         <v>4</v>
@@ -21098,10 +21098,10 @@
         <v>11.483333333333333</v>
       </c>
       <c r="U538">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V538">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="539" spans="1:22" x14ac:dyDescent="0.3">
@@ -21148,7 +21148,7 @@
         <v>8.6833333333333336</v>
       </c>
       <c r="U539">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V539">
         <v>4</v>
@@ -21198,10 +21198,10 @@
         <v>18.483333333333334</v>
       </c>
       <c r="U540">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V540">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="541" spans="1:22" x14ac:dyDescent="0.3">
@@ -21248,7 +21248,7 @@
         <v>8.6833333333333336</v>
       </c>
       <c r="U541">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V541">
         <v>4</v>
@@ -21298,10 +21298,10 @@
         <v>11.483333333333333</v>
       </c>
       <c r="U542">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V542">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="543" spans="1:22" x14ac:dyDescent="0.3">
@@ -21348,7 +21348,7 @@
         <v>8.6833333333333336</v>
       </c>
       <c r="U543">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V543">
         <v>4</v>
@@ -21398,10 +21398,10 @@
         <v>18.483333333333334</v>
       </c>
       <c r="U544">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V544">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="545" spans="1:22" x14ac:dyDescent="0.3">
@@ -21448,10 +21448,10 @@
         <v>11.483333333333333</v>
       </c>
       <c r="U545">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V545">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="546" spans="1:22" x14ac:dyDescent="0.3">
@@ -21548,10 +21548,10 @@
         <v>17.883333333333333</v>
       </c>
       <c r="U547">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V547">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="548" spans="1:22" x14ac:dyDescent="0.3">
@@ -21648,10 +21648,10 @@
         <v>11.483333333333333</v>
       </c>
       <c r="U549">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V549">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="550" spans="1:22" x14ac:dyDescent="0.3">
@@ -21748,10 +21748,10 @@
         <v>17.883333333333333</v>
       </c>
       <c r="U551">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V551">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="552" spans="1:22" x14ac:dyDescent="0.3">
@@ -21848,10 +21848,10 @@
         <v>17.883333333333333</v>
       </c>
       <c r="U553">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V553">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="554" spans="1:22" x14ac:dyDescent="0.3">
@@ -21948,10 +21948,10 @@
         <v>11.483333333333333</v>
       </c>
       <c r="U555">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V555">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="556" spans="1:22" x14ac:dyDescent="0.3">
@@ -22048,10 +22048,10 @@
         <v>11.483333333333333</v>
       </c>
       <c r="U557">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V557">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="558" spans="1:22" x14ac:dyDescent="0.3">
@@ -22148,10 +22148,10 @@
         <v>11.483333333333333</v>
       </c>
       <c r="U559">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V559">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="560" spans="1:22" x14ac:dyDescent="0.3">
@@ -22248,10 +22248,10 @@
         <v>17.883333333333333</v>
       </c>
       <c r="U561">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V561">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="562" spans="1:22" x14ac:dyDescent="0.3">
@@ -22348,10 +22348,10 @@
         <v>17.883333333333333</v>
       </c>
       <c r="U563">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V563">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="564" spans="1:22" x14ac:dyDescent="0.3">
@@ -22448,10 +22448,10 @@
         <v>17.883333333333333</v>
       </c>
       <c r="U565">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V565">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="566" spans="1:22" x14ac:dyDescent="0.3">
@@ -22548,7 +22548,7 @@
         <v>8.6833333333333336</v>
       </c>
       <c r="U567">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V567">
         <v>4</v>
@@ -22598,10 +22598,10 @@
         <v>12.983333333333333</v>
       </c>
       <c r="U568">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V568">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="569" spans="1:22" x14ac:dyDescent="0.3">
@@ -22648,7 +22648,7 @@
         <v>8.6833333333333336</v>
       </c>
       <c r="U569">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V569">
         <v>4</v>
@@ -22698,10 +22698,10 @@
         <v>12.983333333333333</v>
       </c>
       <c r="U570">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V570">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="571" spans="1:22" x14ac:dyDescent="0.3">
@@ -22748,7 +22748,7 @@
         <v>8.6833333333333336</v>
       </c>
       <c r="U571">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V571">
         <v>4</v>
@@ -22798,10 +22798,10 @@
         <v>13.683333333333334</v>
       </c>
       <c r="U572">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V572">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="573" spans="1:22" x14ac:dyDescent="0.3">
@@ -22848,7 +22848,7 @@
         <v>8.6833333333333336</v>
       </c>
       <c r="U573">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V573">
         <v>4</v>
@@ -22898,10 +22898,10 @@
         <v>13.683333333333334</v>
       </c>
       <c r="U574">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V574">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="575" spans="1:22" x14ac:dyDescent="0.3">
@@ -22948,7 +22948,7 @@
         <v>8.6833333333333336</v>
       </c>
       <c r="U575">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V575">
         <v>4</v>
@@ -22998,10 +22998,10 @@
         <v>13.683333333333334</v>
       </c>
       <c r="U576">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V576">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="577" spans="1:22" x14ac:dyDescent="0.3">
@@ -23048,10 +23048,10 @@
         <v>15.783333333333333</v>
       </c>
       <c r="U577">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V577">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="578" spans="1:22" x14ac:dyDescent="0.3">
@@ -23148,10 +23148,10 @@
         <v>15.783333333333333</v>
       </c>
       <c r="U579">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V579">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="580" spans="1:22" x14ac:dyDescent="0.3">
@@ -23248,10 +23248,10 @@
         <v>15.783333333333333</v>
       </c>
       <c r="U581">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V581">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="582" spans="1:22" x14ac:dyDescent="0.3">
@@ -23348,10 +23348,10 @@
         <v>15.783333333333333</v>
       </c>
       <c r="U583">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V583">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="584" spans="1:22" x14ac:dyDescent="0.3">
@@ -23448,10 +23448,10 @@
         <v>17.883333333333333</v>
       </c>
       <c r="U585">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V585">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="586" spans="1:22" x14ac:dyDescent="0.3">
@@ -23548,10 +23548,10 @@
         <v>12.983333333333333</v>
       </c>
       <c r="U587">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V587">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="588" spans="1:22" x14ac:dyDescent="0.3">
@@ -23648,7 +23648,7 @@
         <v>8.6833333333333336</v>
       </c>
       <c r="U589">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V589">
         <v>4</v>
@@ -23698,10 +23698,10 @@
         <v>12.983333333333333</v>
       </c>
       <c r="U590">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V590">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="591" spans="1:22" x14ac:dyDescent="0.3">
@@ -23748,7 +23748,7 @@
         <v>8.6833333333333336</v>
       </c>
       <c r="U591">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V591">
         <v>4</v>
@@ -23798,10 +23798,10 @@
         <v>18.483333333333334</v>
       </c>
       <c r="U592">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V592">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="593" spans="1:22" x14ac:dyDescent="0.3">
@@ -23848,7 +23848,7 @@
         <v>8.6833333333333336</v>
       </c>
       <c r="U593">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V593">
         <v>4</v>
@@ -23898,10 +23898,10 @@
         <v>18.483333333333334</v>
       </c>
       <c r="U594">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V594">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="595" spans="1:22" x14ac:dyDescent="0.3">
@@ -23948,7 +23948,7 @@
         <v>8.6833333333333336</v>
       </c>
       <c r="U595">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V595">
         <v>4</v>
@@ -23998,10 +23998,10 @@
         <v>12.983333333333333</v>
       </c>
       <c r="U596">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V596">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="597" spans="1:22" x14ac:dyDescent="0.3">
@@ -24048,7 +24048,7 @@
         <v>8.6833333333333336</v>
       </c>
       <c r="U597">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V597">
         <v>4</v>
@@ -24098,10 +24098,10 @@
         <v>18.483333333333334</v>
       </c>
       <c r="U598">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V598">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="599" spans="1:22" x14ac:dyDescent="0.3">
@@ -24148,7 +24148,7 @@
         <v>8.6833333333333336</v>
       </c>
       <c r="U599">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V599">
         <v>4</v>
@@ -24198,10 +24198,10 @@
         <v>18.483333333333334</v>
       </c>
       <c r="U600">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V600">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="601" spans="1:22" x14ac:dyDescent="0.3">
@@ -24248,7 +24248,7 @@
         <v>8.6833333333333336</v>
       </c>
       <c r="U601">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V601">
         <v>4</v>
@@ -24298,10 +24298,10 @@
         <v>12.983333333333333</v>
       </c>
       <c r="U602">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V602">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="603" spans="1:22" x14ac:dyDescent="0.3">
@@ -24348,7 +24348,7 @@
         <v>8.6833333333333336</v>
       </c>
       <c r="U603">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V603">
         <v>4</v>
@@ -24398,10 +24398,10 @@
         <v>12.983333333333333</v>
       </c>
       <c r="U604">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V604">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="605" spans="1:22" x14ac:dyDescent="0.3">
@@ -24448,7 +24448,7 @@
         <v>8.6833333333333336</v>
       </c>
       <c r="U605">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V605">
         <v>4</v>
@@ -24498,10 +24498,10 @@
         <v>18.483333333333334</v>
       </c>
       <c r="U606">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V606">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="607" spans="1:22" x14ac:dyDescent="0.3">
@@ -24548,7 +24548,7 @@
         <v>8.6833333333333336</v>
       </c>
       <c r="U607">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V607">
         <v>4</v>
@@ -24598,10 +24598,10 @@
         <v>18.483333333333334</v>
       </c>
       <c r="U608">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V608">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="609" spans="1:22" x14ac:dyDescent="0.3">
@@ -24648,7 +24648,7 @@
         <v>8.6833333333333336</v>
       </c>
       <c r="U609">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V609">
         <v>4</v>
@@ -24698,10 +24698,10 @@
         <v>12.983333333333333</v>
       </c>
       <c r="U610">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V610">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="611" spans="1:22" x14ac:dyDescent="0.3">
@@ -24748,7 +24748,7 @@
         <v>8.6833333333333336</v>
       </c>
       <c r="U611">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V611">
         <v>4</v>
@@ -24798,10 +24798,10 @@
         <v>12.983333333333333</v>
       </c>
       <c r="U612">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V612">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="613" spans="1:22" x14ac:dyDescent="0.3">
@@ -24848,7 +24848,7 @@
         <v>8.6833333333333336</v>
       </c>
       <c r="U613">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V613">
         <v>4</v>
@@ -24898,10 +24898,10 @@
         <v>18.483333333333334</v>
       </c>
       <c r="U614">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V614">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="615" spans="1:22" x14ac:dyDescent="0.3">
@@ -24948,7 +24948,7 @@
         <v>8.6833333333333336</v>
       </c>
       <c r="U615">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V615">
         <v>4</v>
@@ -24998,10 +24998,10 @@
         <v>18.483333333333334</v>
       </c>
       <c r="U616">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V616">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="617" spans="1:22" x14ac:dyDescent="0.3">
@@ -25048,7 +25048,7 @@
         <v>8.6833333333333336</v>
       </c>
       <c r="U617">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V617">
         <v>4</v>
@@ -25098,10 +25098,10 @@
         <v>12.983333333333333</v>
       </c>
       <c r="U618">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V618">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="619" spans="1:22" x14ac:dyDescent="0.3">
@@ -25148,7 +25148,7 @@
         <v>8.6833333333333336</v>
       </c>
       <c r="U619">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V619">
         <v>4</v>
@@ -25198,10 +25198,10 @@
         <v>12.983333333333333</v>
       </c>
       <c r="U620">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V620">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="621" spans="1:22" x14ac:dyDescent="0.3">
@@ -25248,7 +25248,7 @@
         <v>8.6833333333333336</v>
       </c>
       <c r="U621">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V621">
         <v>4</v>
@@ -25298,10 +25298,10 @@
         <v>18.483333333333334</v>
       </c>
       <c r="U622">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V622">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="623" spans="1:22" x14ac:dyDescent="0.3">
@@ -25348,7 +25348,7 @@
         <v>8.6833333333333336</v>
       </c>
       <c r="U623">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V623">
         <v>4</v>
@@ -25398,10 +25398,10 @@
         <v>18.483333333333334</v>
       </c>
       <c r="U624">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V624">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="625" spans="1:22" x14ac:dyDescent="0.3">
@@ -25448,7 +25448,7 @@
         <v>8.6833333333333336</v>
       </c>
       <c r="U625">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V625">
         <v>4</v>
@@ -25498,10 +25498,10 @@
         <v>12.983333333333333</v>
       </c>
       <c r="U626">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V626">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="627" spans="1:22" x14ac:dyDescent="0.3">
@@ -25548,7 +25548,7 @@
         <v>8.6833333333333336</v>
       </c>
       <c r="U627">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V627">
         <v>4</v>
@@ -25598,10 +25598,10 @@
         <v>12.983333333333333</v>
       </c>
       <c r="U628">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V628">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="629" spans="1:22" x14ac:dyDescent="0.3">
@@ -25648,7 +25648,7 @@
         <v>8.6833333333333336</v>
       </c>
       <c r="U629">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V629">
         <v>4</v>
@@ -25698,10 +25698,10 @@
         <v>12.983333333333333</v>
       </c>
       <c r="U630">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V630">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="631" spans="1:22" x14ac:dyDescent="0.3">
@@ -25748,7 +25748,7 @@
         <v>8.6833333333333336</v>
       </c>
       <c r="U631">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V631">
         <v>4</v>
@@ -25798,10 +25798,10 @@
         <v>18.483333333333334</v>
       </c>
       <c r="U632">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V632">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="633" spans="1:22" x14ac:dyDescent="0.3">
@@ -25848,7 +25848,7 @@
         <v>8.6833333333333336</v>
       </c>
       <c r="U633">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V633">
         <v>4</v>
@@ -25898,10 +25898,10 @@
         <v>12.983333333333333</v>
       </c>
       <c r="U634">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V634">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="635" spans="1:22" x14ac:dyDescent="0.3">
@@ -25948,7 +25948,7 @@
         <v>8.6833333333333336</v>
       </c>
       <c r="U635">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V635">
         <v>4</v>
@@ -25998,10 +25998,10 @@
         <v>12.983333333333333</v>
       </c>
       <c r="U636">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V636">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="637" spans="1:22" x14ac:dyDescent="0.3">
@@ -26048,10 +26048,10 @@
         <v>12.983333333333333</v>
       </c>
       <c r="U637">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V637">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="638" spans="1:22" x14ac:dyDescent="0.3">
@@ -26148,10 +26148,10 @@
         <v>17.883333333333333</v>
       </c>
       <c r="U639">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V639">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="640" spans="1:22" x14ac:dyDescent="0.3">
@@ -26248,10 +26248,10 @@
         <v>12.983333333333333</v>
       </c>
       <c r="U641">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V641">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="642" spans="1:22" x14ac:dyDescent="0.3">
@@ -26348,10 +26348,10 @@
         <v>17.883333333333333</v>
       </c>
       <c r="U643">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V643">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="644" spans="1:22" x14ac:dyDescent="0.3">
@@ -26448,10 +26448,10 @@
         <v>17.883333333333333</v>
       </c>
       <c r="U645">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V645">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="646" spans="1:22" x14ac:dyDescent="0.3">
@@ -26548,10 +26548,10 @@
         <v>17.883333333333333</v>
       </c>
       <c r="U647">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V647">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="648" spans="1:22" x14ac:dyDescent="0.3">
@@ -26648,10 +26648,10 @@
         <v>14.383333333333333</v>
       </c>
       <c r="U649">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V649">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="650" spans="1:22" x14ac:dyDescent="0.3">
@@ -26748,10 +26748,10 @@
         <v>17.883333333333333</v>
       </c>
       <c r="U651">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V651">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="652" spans="1:22" x14ac:dyDescent="0.3">
@@ -26898,10 +26898,10 @@
         <v>14.383333333333333</v>
       </c>
       <c r="U654">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V654">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="655" spans="1:22" x14ac:dyDescent="0.3">
@@ -26998,10 +26998,10 @@
         <v>18.483333333333334</v>
       </c>
       <c r="U656">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V656">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="657" spans="1:22" x14ac:dyDescent="0.3">
@@ -27048,10 +27048,10 @@
         <v>17.883333333333333</v>
       </c>
       <c r="U657">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V657">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="658" spans="1:22" x14ac:dyDescent="0.3">
@@ -27148,10 +27148,10 @@
         <v>13.683333333333334</v>
       </c>
       <c r="U659">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V659">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="660" spans="1:22" x14ac:dyDescent="0.3">
@@ -27248,10 +27248,10 @@
         <v>17.883333333333333</v>
       </c>
       <c r="U661">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V661">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="662" spans="1:22" x14ac:dyDescent="0.3">
@@ -27348,10 +27348,10 @@
         <v>17.883333333333333</v>
       </c>
       <c r="U663">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V663">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="664" spans="1:22" x14ac:dyDescent="0.3">
@@ -27448,10 +27448,10 @@
         <v>11.483333333333333</v>
       </c>
       <c r="U665">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V665">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="666" spans="1:22" x14ac:dyDescent="0.3">
@@ -27548,10 +27548,10 @@
         <v>17.883333333333333</v>
       </c>
       <c r="U667">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V667">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="668" spans="1:22" x14ac:dyDescent="0.3">
@@ -27648,10 +27648,10 @@
         <v>11.483333333333333</v>
       </c>
       <c r="U669">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V669">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="670" spans="1:22" x14ac:dyDescent="0.3">
@@ -27748,7 +27748,7 @@
         <v>8.6833333333333336</v>
       </c>
       <c r="U671">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V671">
         <v>4</v>
@@ -27798,10 +27798,10 @@
         <v>18.483333333333334</v>
       </c>
       <c r="U672">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V672">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="673" spans="1:22" x14ac:dyDescent="0.3">
@@ -27848,7 +27848,7 @@
         <v>8.6833333333333336</v>
       </c>
       <c r="U673">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V673">
         <v>4</v>
@@ -27898,10 +27898,10 @@
         <v>11.483333333333333</v>
       </c>
       <c r="U674">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V674">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="675" spans="1:22" x14ac:dyDescent="0.3">
@@ -27948,7 +27948,7 @@
         <v>8.6833333333333336</v>
       </c>
       <c r="U675">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V675">
         <v>4</v>
@@ -27998,10 +27998,10 @@
         <v>18.483333333333334</v>
       </c>
       <c r="U676">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V676">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="677" spans="1:22" x14ac:dyDescent="0.3">
@@ -28048,7 +28048,7 @@
         <v>8.6833333333333336</v>
       </c>
       <c r="U677">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V677">
         <v>4</v>
@@ -28098,10 +28098,10 @@
         <v>11.483333333333333</v>
       </c>
       <c r="U678">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V678">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="679" spans="1:22" x14ac:dyDescent="0.3">
@@ -28148,7 +28148,7 @@
         <v>8.6833333333333336</v>
       </c>
       <c r="U679">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V679">
         <v>4</v>
@@ -28198,10 +28198,10 @@
         <v>18.483333333333334</v>
       </c>
       <c r="U680">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V680">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="681" spans="1:22" x14ac:dyDescent="0.3">
@@ -28248,10 +28248,10 @@
         <v>11.483333333333333</v>
       </c>
       <c r="U681">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V681">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="682" spans="1:22" x14ac:dyDescent="0.3">
@@ -28348,10 +28348,10 @@
         <v>17.883333333333333</v>
       </c>
       <c r="U683">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V683">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="684" spans="1:22" x14ac:dyDescent="0.3">
@@ -28448,10 +28448,10 @@
         <v>11.483333333333333</v>
       </c>
       <c r="U685">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V685">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="686" spans="1:22" x14ac:dyDescent="0.3">
@@ -28548,10 +28548,10 @@
         <v>17.883333333333333</v>
       </c>
       <c r="U687">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V687">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="688" spans="1:22" x14ac:dyDescent="0.3">
@@ -28648,10 +28648,10 @@
         <v>11.483333333333333</v>
       </c>
       <c r="U689">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V689">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="690" spans="1:22" x14ac:dyDescent="0.3">
@@ -28748,7 +28748,7 @@
         <v>8.6833333333333336</v>
       </c>
       <c r="U691">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V691">
         <v>4</v>
@@ -28798,10 +28798,10 @@
         <v>18.483333333333334</v>
       </c>
       <c r="U692">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V692">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="693" spans="1:22" x14ac:dyDescent="0.3">
@@ -28847,6 +28847,12 @@
       <c r="R693">
         <v>6.6833333333333336</v>
       </c>
+      <c r="U693">
+        <v>1</v>
+      </c>
+      <c r="V693">
+        <v>1</v>
+      </c>
     </row>
     <row r="694" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A694" t="s">
@@ -28891,6 +28897,12 @@
       <c r="R694">
         <v>32.166666666666664</v>
       </c>
+      <c r="U694">
+        <v>4</v>
+      </c>
+      <c r="V694">
+        <v>4</v>
+      </c>
     </row>
     <row r="695" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A695" t="s">
@@ -28935,6 +28947,12 @@
       <c r="R695">
         <v>6.6833333333333336</v>
       </c>
+      <c r="U695">
+        <v>1</v>
+      </c>
+      <c r="V695">
+        <v>1</v>
+      </c>
     </row>
     <row r="696" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A696" t="s">
@@ -28979,6 +28997,12 @@
       <c r="R696">
         <v>32.166666666666664</v>
       </c>
+      <c r="U696">
+        <v>4</v>
+      </c>
+      <c r="V696">
+        <v>4</v>
+      </c>
     </row>
     <row r="697" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A697" t="s">
@@ -29023,6 +29047,12 @@
       <c r="R697">
         <v>6.6833333333333336</v>
       </c>
+      <c r="U697">
+        <v>1</v>
+      </c>
+      <c r="V697">
+        <v>1</v>
+      </c>
     </row>
     <row r="698" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A698" t="s">
@@ -29067,6 +29097,12 @@
       <c r="R698">
         <v>32.916666666666664</v>
       </c>
+      <c r="U698">
+        <v>4</v>
+      </c>
+      <c r="V698">
+        <v>4</v>
+      </c>
     </row>
     <row r="699" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A699" t="s">
@@ -29111,6 +29147,12 @@
       <c r="R699">
         <v>6.7333333333333334</v>
       </c>
+      <c r="U699">
+        <v>1</v>
+      </c>
+      <c r="V699">
+        <v>1</v>
+      </c>
     </row>
     <row r="700" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A700" t="s">
@@ -29155,6 +29197,12 @@
       <c r="R700">
         <v>34.216666666666669</v>
       </c>
+      <c r="U700">
+        <v>4</v>
+      </c>
+      <c r="V700">
+        <v>4</v>
+      </c>
     </row>
     <row r="701" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A701" t="s">
@@ -29199,6 +29247,12 @@
       <c r="R701">
         <v>6.95</v>
       </c>
+      <c r="U701">
+        <v>1</v>
+      </c>
+      <c r="V701">
+        <v>1</v>
+      </c>
     </row>
     <row r="702" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A702" t="s">
@@ -29243,6 +29297,12 @@
       <c r="R702">
         <v>32.916666666666664</v>
       </c>
+      <c r="U702">
+        <v>4</v>
+      </c>
+      <c r="V702">
+        <v>4</v>
+      </c>
     </row>
     <row r="703" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A703" t="s">
@@ -29287,6 +29347,12 @@
       <c r="R703">
         <v>6.6833333333333336</v>
       </c>
+      <c r="U703">
+        <v>1</v>
+      </c>
+      <c r="V703">
+        <v>1</v>
+      </c>
     </row>
     <row r="704" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A704" t="s">
@@ -29331,8 +29397,14 @@
       <c r="R704">
         <v>32.916666666666664</v>
       </c>
-    </row>
-    <row r="705" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U704">
+        <v>4</v>
+      </c>
+      <c r="V704">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="705" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A705" t="s">
         <v>1</v>
       </c>
@@ -29375,8 +29447,14 @@
       <c r="R705">
         <v>6.6833333333333336</v>
       </c>
-    </row>
-    <row r="706" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U705">
+        <v>1</v>
+      </c>
+      <c r="V705">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="706" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A706" t="s">
         <v>1</v>
       </c>
@@ -29419,8 +29497,14 @@
       <c r="R706">
         <v>34.65</v>
       </c>
-    </row>
-    <row r="707" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U706">
+        <v>4</v>
+      </c>
+      <c r="V706">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="707" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A707" t="s">
         <v>1</v>
       </c>
@@ -29463,8 +29547,14 @@
       <c r="R707">
         <v>7.3</v>
       </c>
-    </row>
-    <row r="708" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U707">
+        <v>1</v>
+      </c>
+      <c r="V707">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="708" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A708" t="s">
         <v>1</v>
       </c>
@@ -29507,8 +29597,14 @@
       <c r="R708">
         <v>37.533333333333331</v>
       </c>
-    </row>
-    <row r="709" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U708">
+        <v>4</v>
+      </c>
+      <c r="V708">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="709" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A709" t="s">
         <v>1</v>
       </c>
@@ -29551,8 +29647,14 @@
       <c r="R709">
         <v>8.4499999999999993</v>
       </c>
-    </row>
-    <row r="710" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U709">
+        <v>1</v>
+      </c>
+      <c r="V709">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="710" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A710" t="s">
         <v>1</v>
       </c>
@@ -29595,8 +29697,14 @@
       <c r="R710">
         <v>43.833333333333336</v>
       </c>
-    </row>
-    <row r="711" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U710">
+        <v>4</v>
+      </c>
+      <c r="V710">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="711" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A711" t="s">
         <v>1</v>
       </c>
@@ -29639,8 +29747,14 @@
       <c r="R711">
         <v>8.5166666666666675</v>
       </c>
-    </row>
-    <row r="712" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U711">
+        <v>1</v>
+      </c>
+      <c r="V711">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="712" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A712" t="s">
         <v>1</v>
       </c>
@@ -29683,8 +29797,14 @@
       <c r="R712">
         <v>49.383333333333333</v>
       </c>
-    </row>
-    <row r="713" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U712">
+        <v>4</v>
+      </c>
+      <c r="V712">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="713" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A713" t="s">
         <v>1</v>
       </c>
@@ -29727,8 +29847,14 @@
       <c r="R713">
         <v>8.7666666666666675</v>
       </c>
-    </row>
-    <row r="714" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U713">
+        <v>1</v>
+      </c>
+      <c r="V713">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="714" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A714" t="s">
         <v>1</v>
       </c>
@@ -29771,8 +29897,14 @@
       <c r="R714">
         <v>53.65</v>
       </c>
-    </row>
-    <row r="715" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U714">
+        <v>4</v>
+      </c>
+      <c r="V714">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="715" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A715" t="s">
         <v>1</v>
       </c>
@@ -29815,8 +29947,14 @@
       <c r="R715">
         <v>10.783333333333333</v>
       </c>
-    </row>
-    <row r="716" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U715">
+        <v>1</v>
+      </c>
+      <c r="V715">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="716" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A716" t="s">
         <v>1</v>
       </c>
@@ -29859,8 +29997,14 @@
       <c r="R716">
         <v>55.06666666666667</v>
       </c>
-    </row>
-    <row r="717" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U716">
+        <v>4</v>
+      </c>
+      <c r="V716">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="717" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A717" t="s">
         <v>1</v>
       </c>
@@ -29903,8 +30047,14 @@
       <c r="R717">
         <v>10.1</v>
       </c>
-    </row>
-    <row r="718" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U717">
+        <v>1</v>
+      </c>
+      <c r="V717">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="718" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A718" t="s">
         <v>1</v>
       </c>
@@ -29947,8 +30097,14 @@
       <c r="R718">
         <v>51.35</v>
       </c>
-    </row>
-    <row r="719" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U718">
+        <v>4</v>
+      </c>
+      <c r="V718">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="719" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A719" t="s">
         <v>1</v>
       </c>
@@ -29991,8 +30147,14 @@
       <c r="R719">
         <v>13.333333333333334</v>
       </c>
-    </row>
-    <row r="720" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U719">
+        <v>1</v>
+      </c>
+      <c r="V719">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="720" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A720" t="s">
         <v>1</v>
       </c>
@@ -30035,8 +30197,14 @@
       <c r="R720">
         <v>49.3</v>
       </c>
-    </row>
-    <row r="721" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U720">
+        <v>4</v>
+      </c>
+      <c r="V720">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="721" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A721" t="s">
         <v>1</v>
       </c>
@@ -30079,8 +30247,14 @@
       <c r="R721">
         <v>12.133333333333333</v>
       </c>
-    </row>
-    <row r="722" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U721">
+        <v>1</v>
+      </c>
+      <c r="V721">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="722" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A722" t="s">
         <v>1</v>
       </c>
@@ -30123,8 +30297,14 @@
       <c r="R722">
         <v>44.766666666666666</v>
       </c>
-    </row>
-    <row r="723" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U722">
+        <v>4</v>
+      </c>
+      <c r="V722">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="723" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A723" t="s">
         <v>1</v>
       </c>
@@ -30167,8 +30347,14 @@
       <c r="R723">
         <v>11.566666666666666</v>
       </c>
-    </row>
-    <row r="724" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U723">
+        <v>1</v>
+      </c>
+      <c r="V723">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="724" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A724" t="s">
         <v>1</v>
       </c>
@@ -30211,8 +30397,14 @@
       <c r="R724">
         <v>41.133333333333333</v>
       </c>
-    </row>
-    <row r="725" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U724">
+        <v>4</v>
+      </c>
+      <c r="V724">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="725" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A725" t="s">
         <v>1</v>
       </c>
@@ -30255,8 +30447,14 @@
       <c r="R725">
         <v>11.033333333333333</v>
       </c>
-    </row>
-    <row r="726" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U725">
+        <v>1</v>
+      </c>
+      <c r="V725">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="726" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A726" t="s">
         <v>1</v>
       </c>
@@ -30299,8 +30497,14 @@
       <c r="R726">
         <v>42.666666666666664</v>
       </c>
-    </row>
-    <row r="727" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U726">
+        <v>4</v>
+      </c>
+      <c r="V726">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="727" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A727" t="s">
         <v>1</v>
       </c>
@@ -30343,8 +30547,14 @@
       <c r="R727">
         <v>9.25</v>
       </c>
-    </row>
-    <row r="728" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U727">
+        <v>1</v>
+      </c>
+      <c r="V727">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="728" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A728" t="s">
         <v>1</v>
       </c>
@@ -30387,8 +30597,14 @@
       <c r="R728">
         <v>43.95</v>
       </c>
-    </row>
-    <row r="729" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U728">
+        <v>4</v>
+      </c>
+      <c r="V728">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="729" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A729" t="s">
         <v>1</v>
       </c>
@@ -30431,8 +30647,14 @@
       <c r="R729">
         <v>9.1166666666666671</v>
       </c>
-    </row>
-    <row r="730" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U729">
+        <v>1</v>
+      </c>
+      <c r="V729">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="730" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A730" t="s">
         <v>1</v>
       </c>
@@ -30475,8 +30697,14 @@
       <c r="R730">
         <v>42.033333333333331</v>
       </c>
-    </row>
-    <row r="731" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U730">
+        <v>4</v>
+      </c>
+      <c r="V730">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="731" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A731" t="s">
         <v>1</v>
       </c>
@@ -30519,8 +30747,14 @@
       <c r="R731">
         <v>7.1166666666666663</v>
       </c>
-    </row>
-    <row r="732" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U731">
+        <v>1</v>
+      </c>
+      <c r="V731">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="732" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A732" t="s">
         <v>1</v>
       </c>
@@ -30563,8 +30797,14 @@
       <c r="R732">
         <v>39.68333333333333</v>
       </c>
-    </row>
-    <row r="733" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U732">
+        <v>4</v>
+      </c>
+      <c r="V732">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="733" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A733" t="s">
         <v>1</v>
       </c>
@@ -30607,8 +30847,14 @@
       <c r="R733">
         <v>7.2666666666666666</v>
       </c>
-    </row>
-    <row r="734" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U733">
+        <v>1</v>
+      </c>
+      <c r="V733">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="734" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A734" t="s">
         <v>1</v>
       </c>
@@ -30651,8 +30897,14 @@
       <c r="R734">
         <v>42.266666666666666</v>
       </c>
-    </row>
-    <row r="735" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U734">
+        <v>4</v>
+      </c>
+      <c r="V734">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="735" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A735" t="s">
         <v>1</v>
       </c>
@@ -30695,8 +30947,14 @@
       <c r="R735">
         <v>6.6833333333333336</v>
       </c>
-    </row>
-    <row r="736" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U735">
+        <v>1</v>
+      </c>
+      <c r="V735">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="736" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A736" t="s">
         <v>1</v>
       </c>
@@ -30739,8 +30997,14 @@
       <c r="R736">
         <v>39.583333333333336</v>
       </c>
-    </row>
-    <row r="737" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U736">
+        <v>4</v>
+      </c>
+      <c r="V736">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="737" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A737" t="s">
         <v>1</v>
       </c>
@@ -30783,8 +31047,14 @@
       <c r="R737">
         <v>6.6833333333333336</v>
       </c>
-    </row>
-    <row r="738" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U737">
+        <v>1</v>
+      </c>
+      <c r="V737">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="738" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A738" t="s">
         <v>1</v>
       </c>
@@ -30827,8 +31097,14 @@
       <c r="R738">
         <v>34.950000000000003</v>
       </c>
-    </row>
-    <row r="739" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U738">
+        <v>4</v>
+      </c>
+      <c r="V738">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="739" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A739" t="s">
         <v>1</v>
       </c>
@@ -30871,8 +31147,14 @@
       <c r="R739">
         <v>6.9</v>
       </c>
-    </row>
-    <row r="740" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U739">
+        <v>1</v>
+      </c>
+      <c r="V739">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="740" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A740" t="s">
         <v>1</v>
       </c>
@@ -30915,8 +31197,14 @@
       <c r="R740">
         <v>34.65</v>
       </c>
-    </row>
-    <row r="741" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U740">
+        <v>4</v>
+      </c>
+      <c r="V740">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="741" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A741" t="s">
         <v>1</v>
       </c>
@@ -30959,8 +31247,14 @@
       <c r="R741">
         <v>6.7</v>
       </c>
-    </row>
-    <row r="742" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U741">
+        <v>1</v>
+      </c>
+      <c r="V741">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="742" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A742" t="s">
         <v>1</v>
       </c>
@@ -31003,8 +31297,14 @@
       <c r="R742">
         <v>33.983333333333334</v>
       </c>
-    </row>
-    <row r="743" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U742">
+        <v>4</v>
+      </c>
+      <c r="V742">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="743" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A743" t="s">
         <v>1</v>
       </c>
@@ -31047,8 +31347,14 @@
       <c r="R743">
         <v>6.833333333333333</v>
       </c>
-    </row>
-    <row r="744" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U743">
+        <v>1</v>
+      </c>
+      <c r="V743">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="744" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A744" t="s">
         <v>1</v>
       </c>
@@ -31091,8 +31397,14 @@
       <c r="R744">
         <v>33.533333333333331</v>
       </c>
-    </row>
-    <row r="745" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U744">
+        <v>4</v>
+      </c>
+      <c r="V744">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="745" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A745" t="s">
         <v>1</v>
       </c>
@@ -31135,8 +31447,14 @@
       <c r="R745">
         <v>6.6833333333333336</v>
       </c>
-    </row>
-    <row r="746" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U745">
+        <v>1</v>
+      </c>
+      <c r="V745">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="746" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A746" t="s">
         <v>1</v>
       </c>
@@ -31179,8 +31497,14 @@
       <c r="R746">
         <v>32.483333333333334</v>
       </c>
-    </row>
-    <row r="747" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U746">
+        <v>4</v>
+      </c>
+      <c r="V746">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="747" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A747" t="s">
         <v>1</v>
       </c>
@@ -31223,8 +31547,14 @@
       <c r="R747">
         <v>6.6833333333333336</v>
       </c>
-    </row>
-    <row r="748" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U747">
+        <v>1</v>
+      </c>
+      <c r="V747">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="748" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A748" t="s">
         <v>1</v>
       </c>
@@ -31267,8 +31597,14 @@
       <c r="R748">
         <v>33.450000000000003</v>
       </c>
-    </row>
-    <row r="749" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U748">
+        <v>4</v>
+      </c>
+      <c r="V748">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="749" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A749" t="s">
         <v>1</v>
       </c>
@@ -31311,8 +31647,14 @@
       <c r="R749">
         <v>6.6833333333333336</v>
       </c>
-    </row>
-    <row r="750" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U749">
+        <v>1</v>
+      </c>
+      <c r="V749">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="750" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A750" t="s">
         <v>1</v>
       </c>
@@ -31355,8 +31697,14 @@
       <c r="R750">
         <v>32.483333333333334</v>
       </c>
-    </row>
-    <row r="751" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U750">
+        <v>4</v>
+      </c>
+      <c r="V750">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="751" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A751" t="s">
         <v>1</v>
       </c>
@@ -31399,8 +31747,14 @@
       <c r="R751">
         <v>6.6833333333333336</v>
       </c>
-    </row>
-    <row r="752" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U751">
+        <v>1</v>
+      </c>
+      <c r="V751">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="752" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A752" t="s">
         <v>1</v>
       </c>
@@ -31443,8 +31797,14 @@
       <c r="R752">
         <v>32.483333333333334</v>
       </c>
-    </row>
-    <row r="753" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U752">
+        <v>4</v>
+      </c>
+      <c r="V752">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="753" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A753" t="s">
         <v>1</v>
       </c>
@@ -31487,8 +31847,14 @@
       <c r="R753">
         <v>6.6833333333333336</v>
       </c>
-    </row>
-    <row r="754" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U753">
+        <v>1</v>
+      </c>
+      <c r="V753">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="754" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A754" t="s">
         <v>1</v>
       </c>
@@ -31531,8 +31897,14 @@
       <c r="R754">
         <v>32.18333333333333</v>
       </c>
-    </row>
-    <row r="755" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U754">
+        <v>4</v>
+      </c>
+      <c r="V754">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="755" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A755" t="s">
         <v>1</v>
       </c>
@@ -31575,8 +31947,14 @@
       <c r="R755">
         <v>6.9333333333333336</v>
       </c>
-    </row>
-    <row r="756" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U755">
+        <v>1</v>
+      </c>
+      <c r="V755">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="756" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A756" t="s">
         <v>1</v>
       </c>
@@ -31619,8 +31997,14 @@
       <c r="R756">
         <v>32.166666666666664</v>
       </c>
-    </row>
-    <row r="757" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U756">
+        <v>4</v>
+      </c>
+      <c r="V756">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="757" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A757" t="s">
         <v>1</v>
       </c>
@@ -31663,8 +32047,14 @@
       <c r="R757">
         <v>6.95</v>
       </c>
-    </row>
-    <row r="758" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U757">
+        <v>1</v>
+      </c>
+      <c r="V757">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="758" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A758" t="s">
         <v>1</v>
       </c>
@@ -31707,8 +32097,14 @@
       <c r="R758">
         <v>32.450000000000003</v>
       </c>
-    </row>
-    <row r="759" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U758">
+        <v>4</v>
+      </c>
+      <c r="V758">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="759" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A759" t="s">
         <v>1</v>
       </c>
@@ -31751,8 +32147,14 @@
       <c r="R759">
         <v>7.9</v>
       </c>
-    </row>
-    <row r="760" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U759">
+        <v>1</v>
+      </c>
+      <c r="V759">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="760" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A760" t="s">
         <v>1</v>
       </c>
@@ -31795,8 +32197,14 @@
       <c r="R760">
         <v>32.483333333333334</v>
       </c>
-    </row>
-    <row r="761" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U760">
+        <v>4</v>
+      </c>
+      <c r="V760">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="761" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A761" t="s">
         <v>1</v>
       </c>
@@ -31839,8 +32247,14 @@
       <c r="R761">
         <v>7.25</v>
       </c>
-    </row>
-    <row r="762" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U761">
+        <v>1</v>
+      </c>
+      <c r="V761">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="762" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A762" t="s">
         <v>1</v>
       </c>
@@ -31883,8 +32297,14 @@
       <c r="R762">
         <v>33.25</v>
       </c>
-    </row>
-    <row r="763" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U762">
+        <v>4</v>
+      </c>
+      <c r="V762">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="763" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A763" t="s">
         <v>1</v>
       </c>
@@ -31927,8 +32347,14 @@
       <c r="R763">
         <v>7.166666666666667</v>
       </c>
-    </row>
-    <row r="764" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U763">
+        <v>1</v>
+      </c>
+      <c r="V763">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="764" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A764" t="s">
         <v>1</v>
       </c>
@@ -31971,8 +32397,14 @@
       <c r="R764">
         <v>33.733333333333334</v>
       </c>
-    </row>
-    <row r="765" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U764">
+        <v>4</v>
+      </c>
+      <c r="V764">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="765" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A765" t="s">
         <v>1</v>
       </c>
@@ -32015,8 +32447,14 @@
       <c r="R765">
         <v>7.1833333333333336</v>
       </c>
-    </row>
-    <row r="766" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U765">
+        <v>1</v>
+      </c>
+      <c r="V765">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="766" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A766" t="s">
         <v>1</v>
       </c>
@@ -32059,8 +32497,14 @@
       <c r="R766">
         <v>33.299999999999997</v>
       </c>
-    </row>
-    <row r="767" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U766">
+        <v>4</v>
+      </c>
+      <c r="V766">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="767" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A767" t="s">
         <v>1</v>
       </c>
@@ -32103,8 +32547,14 @@
       <c r="R767">
         <v>7.1</v>
       </c>
-    </row>
-    <row r="768" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U767">
+        <v>1</v>
+      </c>
+      <c r="V767">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="768" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A768" t="s">
         <v>1</v>
       </c>
@@ -32147,8 +32597,14 @@
       <c r="R768">
         <v>33.666666666666664</v>
       </c>
-    </row>
-    <row r="769" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U768">
+        <v>4</v>
+      </c>
+      <c r="V768">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="769" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A769" t="s">
         <v>1</v>
       </c>
@@ -32191,8 +32647,14 @@
       <c r="R769">
         <v>7.85</v>
       </c>
-    </row>
-    <row r="770" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U769">
+        <v>1</v>
+      </c>
+      <c r="V769">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="770" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A770" t="s">
         <v>1</v>
       </c>
@@ -32235,8 +32697,14 @@
       <c r="R770">
         <v>34.516666666666666</v>
       </c>
-    </row>
-    <row r="771" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U770">
+        <v>4</v>
+      </c>
+      <c r="V770">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="771" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A771" t="s">
         <v>1</v>
       </c>
@@ -32279,8 +32747,14 @@
       <c r="R771">
         <v>7.5166666666666666</v>
       </c>
-    </row>
-    <row r="772" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U771">
+        <v>1</v>
+      </c>
+      <c r="V771">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="772" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A772" t="s">
         <v>1</v>
       </c>
@@ -32323,8 +32797,14 @@
       <c r="R772">
         <v>35.81666666666667</v>
       </c>
-    </row>
-    <row r="773" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U772">
+        <v>4</v>
+      </c>
+      <c r="V772">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="773" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A773" t="s">
         <v>1</v>
       </c>
@@ -32367,8 +32847,14 @@
       <c r="R773">
         <v>8.85</v>
       </c>
-    </row>
-    <row r="774" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U773">
+        <v>1</v>
+      </c>
+      <c r="V773">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="774" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A774" t="s">
         <v>1</v>
       </c>
@@ -32411,8 +32897,14 @@
       <c r="R774">
         <v>37.81666666666667</v>
       </c>
-    </row>
-    <row r="775" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U774">
+        <v>4</v>
+      </c>
+      <c r="V774">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="775" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A775" t="s">
         <v>1</v>
       </c>
@@ -32455,8 +32947,14 @@
       <c r="R775">
         <v>10.833333333333334</v>
       </c>
-    </row>
-    <row r="776" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U775">
+        <v>1</v>
+      </c>
+      <c r="V775">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="776" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A776" t="s">
         <v>1</v>
       </c>
@@ -32499,8 +32997,14 @@
       <c r="R776">
         <v>37.533333333333331</v>
       </c>
-    </row>
-    <row r="777" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U776">
+        <v>4</v>
+      </c>
+      <c r="V776">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="777" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A777" t="s">
         <v>1</v>
       </c>
@@ -32543,8 +33047,14 @@
       <c r="R777">
         <v>11.35</v>
       </c>
-    </row>
-    <row r="778" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U777">
+        <v>1</v>
+      </c>
+      <c r="V777">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="778" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A778" t="s">
         <v>1</v>
       </c>
@@ -32587,8 +33097,14 @@
       <c r="R778">
         <v>38.916666666666664</v>
       </c>
-    </row>
-    <row r="779" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U778">
+        <v>4</v>
+      </c>
+      <c r="V778">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="779" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A779" t="s">
         <v>1</v>
       </c>
@@ -32631,8 +33147,14 @@
       <c r="R779">
         <v>11.433333333333334</v>
       </c>
-    </row>
-    <row r="780" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U779">
+        <v>1</v>
+      </c>
+      <c r="V779">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="780" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A780" t="s">
         <v>1</v>
       </c>
@@ -32675,8 +33197,14 @@
       <c r="R780">
         <v>43.166666666666664</v>
       </c>
-    </row>
-    <row r="781" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U780">
+        <v>4</v>
+      </c>
+      <c r="V780">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="781" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A781" t="s">
         <v>1</v>
       </c>
@@ -32719,8 +33247,14 @@
       <c r="R781">
         <v>12.733333333333333</v>
       </c>
-    </row>
-    <row r="782" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U781">
+        <v>1</v>
+      </c>
+      <c r="V781">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="782" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A782" t="s">
         <v>1</v>
       </c>
@@ -32763,8 +33297,14 @@
       <c r="R782">
         <v>44.133333333333333</v>
       </c>
-    </row>
-    <row r="783" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U782">
+        <v>4</v>
+      </c>
+      <c r="V782">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="783" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A783" t="s">
         <v>1</v>
       </c>
@@ -32807,8 +33347,14 @@
       <c r="R783">
         <v>14.516666666666667</v>
       </c>
-    </row>
-    <row r="784" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U783">
+        <v>1</v>
+      </c>
+      <c r="V783">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="784" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A784" t="s">
         <v>1</v>
       </c>
@@ -32851,8 +33397,14 @@
       <c r="R784">
         <v>45.43333333333333</v>
       </c>
-    </row>
-    <row r="785" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U784">
+        <v>4</v>
+      </c>
+      <c r="V784">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="785" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A785" t="s">
         <v>1</v>
       </c>
@@ -32895,8 +33447,14 @@
       <c r="R785">
         <v>13.583333333333334</v>
       </c>
-    </row>
-    <row r="786" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U785">
+        <v>1</v>
+      </c>
+      <c r="V785">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="786" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A786" t="s">
         <v>1</v>
       </c>
@@ -32939,8 +33497,14 @@
       <c r="R786">
         <v>54.616666666666667</v>
       </c>
-    </row>
-    <row r="787" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U786">
+        <v>4</v>
+      </c>
+      <c r="V786">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="787" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A787" t="s">
         <v>1</v>
       </c>
@@ -32983,8 +33547,14 @@
       <c r="R787">
         <v>15.866666666666667</v>
       </c>
-    </row>
-    <row r="788" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U787">
+        <v>2</v>
+      </c>
+      <c r="V787">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="788" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A788" t="s">
         <v>1</v>
       </c>
@@ -33027,8 +33597,14 @@
       <c r="R788">
         <v>50.15</v>
       </c>
-    </row>
-    <row r="789" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U788">
+        <v>4</v>
+      </c>
+      <c r="V788">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="789" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A789" t="s">
         <v>1</v>
       </c>
@@ -33071,8 +33647,14 @@
       <c r="R789">
         <v>16.733333333333334</v>
       </c>
-    </row>
-    <row r="790" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U789">
+        <v>2</v>
+      </c>
+      <c r="V789">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="790" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A790" t="s">
         <v>1</v>
       </c>
@@ -33115,8 +33697,14 @@
       <c r="R790">
         <v>57.133333333333333</v>
       </c>
-    </row>
-    <row r="791" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U790">
+        <v>4</v>
+      </c>
+      <c r="V790">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="791" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A791" t="s">
         <v>1</v>
       </c>
@@ -33159,8 +33747,14 @@
       <c r="R791">
         <v>14.366666666666667</v>
       </c>
-    </row>
-    <row r="792" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U791">
+        <v>2</v>
+      </c>
+      <c r="V791">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="792" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A792" t="s">
         <v>1</v>
       </c>
@@ -33203,8 +33797,14 @@
       <c r="R792">
         <v>54.883333333333333</v>
       </c>
-    </row>
-    <row r="793" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U792">
+        <v>4</v>
+      </c>
+      <c r="V792">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="793" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A793" t="s">
         <v>1</v>
       </c>
@@ -33247,8 +33847,14 @@
       <c r="R793">
         <v>11.566666666666666</v>
       </c>
-    </row>
-    <row r="794" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U793">
+        <v>1</v>
+      </c>
+      <c r="V793">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="794" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A794" t="s">
         <v>1</v>
       </c>
@@ -33291,8 +33897,14 @@
       <c r="R794">
         <v>56.766666666666666</v>
       </c>
-    </row>
-    <row r="795" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U794">
+        <v>4</v>
+      </c>
+      <c r="V794">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="795" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A795" t="s">
         <v>1</v>
       </c>
@@ -33335,8 +33947,14 @@
       <c r="R795">
         <v>11.15</v>
       </c>
-    </row>
-    <row r="796" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U795">
+        <v>1</v>
+      </c>
+      <c r="V795">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="796" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A796" t="s">
         <v>1</v>
       </c>
@@ -33379,8 +33997,14 @@
       <c r="R796">
         <v>56.35</v>
       </c>
-    </row>
-    <row r="797" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U796">
+        <v>4</v>
+      </c>
+      <c r="V796">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="797" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A797" t="s">
         <v>1</v>
       </c>
@@ -33423,8 +34047,14 @@
       <c r="R797">
         <v>10.366666666666667</v>
       </c>
-    </row>
-    <row r="798" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U797">
+        <v>1</v>
+      </c>
+      <c r="V797">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="798" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A798" t="s">
         <v>1</v>
       </c>
@@ -33467,8 +34097,14 @@
       <c r="R798">
         <v>51.016666666666666</v>
       </c>
-    </row>
-    <row r="799" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U798">
+        <v>4</v>
+      </c>
+      <c r="V798">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="799" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A799" t="s">
         <v>1</v>
       </c>
@@ -33511,8 +34147,14 @@
       <c r="R799">
         <v>9.6666666666666661</v>
       </c>
-    </row>
-    <row r="800" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U799">
+        <v>1</v>
+      </c>
+      <c r="V799">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="800" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A800" t="s">
         <v>1</v>
       </c>
@@ -33555,8 +34197,14 @@
       <c r="R800">
         <v>45.983333333333334</v>
       </c>
-    </row>
-    <row r="801" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U800">
+        <v>4</v>
+      </c>
+      <c r="V800">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="801" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A801" t="s">
         <v>1</v>
       </c>
@@ -33599,8 +34247,14 @@
       <c r="R801">
         <v>8.4666666666666668</v>
       </c>
-    </row>
-    <row r="802" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U801">
+        <v>1</v>
+      </c>
+      <c r="V801">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="802" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A802" t="s">
         <v>1</v>
       </c>
@@ -33643,8 +34297,14 @@
       <c r="R802">
         <v>45.4</v>
       </c>
-    </row>
-    <row r="803" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U802">
+        <v>4</v>
+      </c>
+      <c r="V802">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="803" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A803" t="s">
         <v>1</v>
       </c>
@@ -33687,8 +34347,14 @@
       <c r="R803">
         <v>8.2333333333333325</v>
       </c>
-    </row>
-    <row r="804" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U803">
+        <v>1</v>
+      </c>
+      <c r="V803">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="804" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A804" t="s">
         <v>1</v>
       </c>
@@ -33731,8 +34397,14 @@
       <c r="R804">
         <v>42.983333333333334</v>
       </c>
-    </row>
-    <row r="805" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U804">
+        <v>4</v>
+      </c>
+      <c r="V804">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="805" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A805" t="s">
         <v>1</v>
       </c>
@@ -33775,8 +34447,14 @@
       <c r="R805">
         <v>40.083333333333336</v>
       </c>
-    </row>
-    <row r="806" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U805">
+        <v>4</v>
+      </c>
+      <c r="V805">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="806" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A806" t="s">
         <v>1</v>
       </c>
@@ -33819,8 +34497,14 @@
       <c r="R806">
         <v>6.8833333333333337</v>
       </c>
-    </row>
-    <row r="807" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U806">
+        <v>1</v>
+      </c>
+      <c r="V806">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="807" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A807" t="s">
         <v>1</v>
       </c>
@@ -33863,8 +34547,14 @@
       <c r="R807">
         <v>38.166666666666664</v>
       </c>
-    </row>
-    <row r="808" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U807">
+        <v>4</v>
+      </c>
+      <c r="V807">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="808" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A808" t="s">
         <v>1</v>
       </c>
@@ -33907,8 +34597,14 @@
       <c r="R808">
         <v>6.6833333333333336</v>
       </c>
-    </row>
-    <row r="809" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U808">
+        <v>1</v>
+      </c>
+      <c r="V808">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="809" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A809" t="s">
         <v>1</v>
       </c>
@@ -33951,8 +34647,14 @@
       <c r="R809">
         <v>34.783333333333331</v>
       </c>
-    </row>
-    <row r="810" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U809">
+        <v>4</v>
+      </c>
+      <c r="V809">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="810" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A810" t="s">
         <v>1</v>
       </c>
@@ -33995,8 +34697,14 @@
       <c r="R810">
         <v>6.6833333333333336</v>
       </c>
-    </row>
-    <row r="811" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U810">
+        <v>1</v>
+      </c>
+      <c r="V810">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="811" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A811" t="s">
         <v>1</v>
       </c>
@@ -34039,8 +34747,14 @@
       <c r="R811">
         <v>34.65</v>
       </c>
-    </row>
-    <row r="812" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U811">
+        <v>4</v>
+      </c>
+      <c r="V811">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="812" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A812" t="s">
         <v>1</v>
       </c>
@@ -34083,8 +34797,14 @@
       <c r="R812">
         <v>6.6833333333333336</v>
       </c>
-    </row>
-    <row r="813" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U812">
+        <v>1</v>
+      </c>
+      <c r="V812">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="813" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A813" t="s">
         <v>1</v>
       </c>
@@ -34127,8 +34847,14 @@
       <c r="R813">
         <v>35.166666666666664</v>
       </c>
-    </row>
-    <row r="814" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U813">
+        <v>4</v>
+      </c>
+      <c r="V813">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="814" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A814" t="s">
         <v>1</v>
       </c>
@@ -34171,8 +34897,14 @@
       <c r="R814">
         <v>6.6833333333333336</v>
       </c>
-    </row>
-    <row r="815" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U814">
+        <v>1</v>
+      </c>
+      <c r="V814">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="815" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A815" t="s">
         <v>1</v>
       </c>
@@ -34215,8 +34947,14 @@
       <c r="R815">
         <v>35.966666666666669</v>
       </c>
-    </row>
-    <row r="816" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U815">
+        <v>4</v>
+      </c>
+      <c r="V815">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="816" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A816" t="s">
         <v>1</v>
       </c>
@@ -34259,8 +34997,14 @@
       <c r="R816">
         <v>6.6833333333333336</v>
       </c>
-    </row>
-    <row r="817" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U816">
+        <v>1</v>
+      </c>
+      <c r="V816">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="817" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A817" t="s">
         <v>1</v>
       </c>
@@ -34303,8 +35047,14 @@
       <c r="R817">
         <v>34.799999999999997</v>
       </c>
-    </row>
-    <row r="818" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U817">
+        <v>4</v>
+      </c>
+      <c r="V817">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="818" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A818" t="s">
         <v>1</v>
       </c>
@@ -34347,8 +35097,14 @@
       <c r="R818">
         <v>6.8833333333333337</v>
       </c>
-    </row>
-    <row r="819" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U818">
+        <v>1</v>
+      </c>
+      <c r="V818">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="819" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A819" t="s">
         <v>1</v>
       </c>
@@ -34391,8 +35147,14 @@
       <c r="R819">
         <v>33.783333333333331</v>
       </c>
-    </row>
-    <row r="820" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U819">
+        <v>4</v>
+      </c>
+      <c r="V819">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="820" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A820" t="s">
         <v>1</v>
       </c>
@@ -34435,8 +35197,14 @@
       <c r="R820">
         <v>6.6833333333333336</v>
       </c>
-    </row>
-    <row r="821" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U820">
+        <v>1</v>
+      </c>
+      <c r="V820">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="821" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A821" t="s">
         <v>1</v>
       </c>
@@ -34479,8 +35247,14 @@
       <c r="R821">
         <v>34.200000000000003</v>
       </c>
-    </row>
-    <row r="822" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U821">
+        <v>4</v>
+      </c>
+      <c r="V821">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="822" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A822" t="s">
         <v>1</v>
       </c>
@@ -34523,8 +35297,14 @@
       <c r="R822">
         <v>6.6833333333333336</v>
       </c>
-    </row>
-    <row r="823" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U822">
+        <v>1</v>
+      </c>
+      <c r="V822">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="823" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A823" t="s">
         <v>1</v>
       </c>
@@ -34567,8 +35347,14 @@
       <c r="R823">
         <v>34.549999999999997</v>
       </c>
-    </row>
-    <row r="824" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U823">
+        <v>4</v>
+      </c>
+      <c r="V823">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="824" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A824" t="s">
         <v>1</v>
       </c>
@@ -34611,8 +35397,14 @@
       <c r="R824">
         <v>6.6833333333333336</v>
       </c>
-    </row>
-    <row r="825" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U824">
+        <v>1</v>
+      </c>
+      <c r="V824">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="825" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A825" t="s">
         <v>1</v>
       </c>
@@ -34655,8 +35447,14 @@
       <c r="R825">
         <v>35.200000000000003</v>
       </c>
-    </row>
-    <row r="826" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U825">
+        <v>4</v>
+      </c>
+      <c r="V825">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="826" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A826" t="s">
         <v>1</v>
       </c>
@@ -34699,8 +35497,14 @@
       <c r="R826">
         <v>6.6833333333333336</v>
       </c>
-    </row>
-    <row r="827" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U826">
+        <v>1</v>
+      </c>
+      <c r="V826">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="827" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A827" t="s">
         <v>1</v>
       </c>
@@ -34743,8 +35547,14 @@
       <c r="R827">
         <v>33.966666666666669</v>
       </c>
-    </row>
-    <row r="828" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U827">
+        <v>4</v>
+      </c>
+      <c r="V827">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="828" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A828" t="s">
         <v>1</v>
       </c>
@@ -34787,8 +35597,14 @@
       <c r="R828">
         <v>6.6833333333333336</v>
       </c>
-    </row>
-    <row r="829" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U828">
+        <v>1</v>
+      </c>
+      <c r="V828">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="829" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A829" t="s">
         <v>1</v>
       </c>
@@ -34831,8 +35647,14 @@
       <c r="R829">
         <v>35.133333333333333</v>
       </c>
-    </row>
-    <row r="830" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U829">
+        <v>4</v>
+      </c>
+      <c r="V829">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="830" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A830" t="s">
         <v>1</v>
       </c>
@@ -34875,8 +35697,14 @@
       <c r="R830">
         <v>6.6833333333333336</v>
       </c>
-    </row>
-    <row r="831" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U830">
+        <v>1</v>
+      </c>
+      <c r="V830">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="831" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A831" t="s">
         <v>1</v>
       </c>
@@ -34919,8 +35747,14 @@
       <c r="R831">
         <v>32.483333333333334</v>
       </c>
-    </row>
-    <row r="832" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U831">
+        <v>4</v>
+      </c>
+      <c r="V831">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="832" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A832" t="s">
         <v>1</v>
       </c>
@@ -34963,8 +35797,14 @@
       <c r="R832">
         <v>6.6833333333333336</v>
       </c>
-    </row>
-    <row r="833" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U832">
+        <v>1</v>
+      </c>
+      <c r="V832">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="833" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A833" t="s">
         <v>1</v>
       </c>
@@ -35007,8 +35847,14 @@
       <c r="R833">
         <v>32.166666666666664</v>
       </c>
-    </row>
-    <row r="834" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U833">
+        <v>4</v>
+      </c>
+      <c r="V833">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="834" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A834" t="s">
         <v>1</v>
       </c>
@@ -35051,8 +35897,14 @@
       <c r="R834">
         <v>6.6833333333333336</v>
       </c>
-    </row>
-    <row r="835" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U834">
+        <v>1</v>
+      </c>
+      <c r="V834">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="835" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A835" t="s">
         <v>1</v>
       </c>
@@ -35095,8 +35947,14 @@
       <c r="R835">
         <v>32.483333333333334</v>
       </c>
-    </row>
-    <row r="836" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U835">
+        <v>4</v>
+      </c>
+      <c r="V835">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="836" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A836" t="s">
         <v>1</v>
       </c>
@@ -35139,8 +35997,14 @@
       <c r="R836">
         <v>6.9</v>
       </c>
-    </row>
-    <row r="837" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U836">
+        <v>1</v>
+      </c>
+      <c r="V836">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="837" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A837" t="s">
         <v>1</v>
       </c>
@@ -35183,8 +36047,14 @@
       <c r="R837">
         <v>32.916666666666664</v>
       </c>
-    </row>
-    <row r="838" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U837">
+        <v>4</v>
+      </c>
+      <c r="V837">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="838" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A838" t="s">
         <v>1</v>
       </c>
@@ -35227,8 +36097,14 @@
       <c r="R838">
         <v>6.75</v>
       </c>
-    </row>
-    <row r="839" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U838">
+        <v>1</v>
+      </c>
+      <c r="V838">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="839" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A839" t="s">
         <v>1</v>
       </c>
@@ -35271,8 +36147,14 @@
       <c r="R839">
         <v>32.916666666666664</v>
       </c>
-    </row>
-    <row r="840" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U839">
+        <v>4</v>
+      </c>
+      <c r="V839">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="840" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A840" t="s">
         <v>1</v>
       </c>
@@ -35315,8 +36197,14 @@
       <c r="R840">
         <v>6.6833333333333336</v>
       </c>
-    </row>
-    <row r="841" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U840">
+        <v>1</v>
+      </c>
+      <c r="V840">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="841" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A841" t="s">
         <v>1</v>
       </c>
@@ -35359,8 +36247,14 @@
       <c r="R841">
         <v>32.916666666666664</v>
       </c>
-    </row>
-    <row r="842" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U841">
+        <v>4</v>
+      </c>
+      <c r="V841">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="842" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A842" t="s">
         <v>1</v>
       </c>
@@ -35403,8 +36297,14 @@
       <c r="R842">
         <v>6.6833333333333336</v>
       </c>
-    </row>
-    <row r="843" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U842">
+        <v>1</v>
+      </c>
+      <c r="V842">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="843" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A843" t="s">
         <v>1</v>
       </c>
@@ -35447,8 +36347,14 @@
       <c r="R843">
         <v>32.916666666666664</v>
       </c>
-    </row>
-    <row r="844" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U843">
+        <v>4</v>
+      </c>
+      <c r="V843">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="844" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A844" t="s">
         <v>1</v>
       </c>
@@ -35491,8 +36397,14 @@
       <c r="R844">
         <v>6.8666666666666663</v>
       </c>
-    </row>
-    <row r="845" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U844">
+        <v>1</v>
+      </c>
+      <c r="V844">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="845" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A845" t="s">
         <v>1</v>
       </c>
@@ -35535,8 +36447,14 @@
       <c r="R845">
         <v>33.9</v>
       </c>
-    </row>
-    <row r="846" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U845">
+        <v>4</v>
+      </c>
+      <c r="V845">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="846" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A846" t="s">
         <v>1</v>
       </c>
@@ -35579,8 +36497,14 @@
       <c r="R846">
         <v>8.8000000000000007</v>
       </c>
-    </row>
-    <row r="847" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U846">
+        <v>1</v>
+      </c>
+      <c r="V846">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="847" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A847" t="s">
         <v>1</v>
       </c>
@@ -35623,8 +36547,14 @@
       <c r="R847">
         <v>38.383333333333333</v>
       </c>
-    </row>
-    <row r="848" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U847">
+        <v>4</v>
+      </c>
+      <c r="V847">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="848" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A848" t="s">
         <v>1</v>
       </c>
@@ -35667,8 +36597,14 @@
       <c r="R848">
         <v>8.6</v>
       </c>
-    </row>
-    <row r="849" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U848">
+        <v>1</v>
+      </c>
+      <c r="V848">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="849" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A849" t="s">
         <v>1</v>
       </c>
@@ -35711,8 +36647,14 @@
       <c r="R849">
         <v>38.366666666666667</v>
       </c>
-    </row>
-    <row r="850" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U849">
+        <v>4</v>
+      </c>
+      <c r="V849">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="850" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A850" t="s">
         <v>1</v>
       </c>
@@ -35755,8 +36697,14 @@
       <c r="R850">
         <v>9.3166666666666664</v>
       </c>
-    </row>
-    <row r="851" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U850">
+        <v>1</v>
+      </c>
+      <c r="V850">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="851" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A851" t="s">
         <v>1</v>
       </c>
@@ -35799,8 +36747,14 @@
       <c r="R851">
         <v>41.56666666666667</v>
       </c>
-    </row>
-    <row r="852" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U851">
+        <v>4</v>
+      </c>
+      <c r="V851">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="852" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A852" t="s">
         <v>1</v>
       </c>
@@ -35843,8 +36797,14 @@
       <c r="R852">
         <v>10.466666666666667</v>
       </c>
-    </row>
-    <row r="853" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U852">
+        <v>1</v>
+      </c>
+      <c r="V852">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="853" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A853" t="s">
         <v>1</v>
       </c>
@@ -35887,8 +36847,14 @@
       <c r="R853">
         <v>41.35</v>
       </c>
-    </row>
-    <row r="854" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U853">
+        <v>4</v>
+      </c>
+      <c r="V853">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="854" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A854" t="s">
         <v>1</v>
       </c>
@@ -35931,8 +36897,14 @@
       <c r="R854">
         <v>11.166666666666666</v>
       </c>
-    </row>
-    <row r="855" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U854">
+        <v>1</v>
+      </c>
+      <c r="V854">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="855" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A855" t="s">
         <v>1</v>
       </c>
@@ -35975,8 +36947,14 @@
       <c r="R855">
         <v>38.35</v>
       </c>
-    </row>
-    <row r="856" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U855">
+        <v>4</v>
+      </c>
+      <c r="V855">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="856" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A856" t="s">
         <v>1</v>
       </c>
@@ -36019,8 +36997,14 @@
       <c r="R856">
         <v>11.916666666666666</v>
       </c>
-    </row>
-    <row r="857" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U856">
+        <v>1</v>
+      </c>
+      <c r="V856">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="857" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A857" t="s">
         <v>1</v>
       </c>
@@ -36063,8 +37047,14 @@
       <c r="R857">
         <v>40.533333333333331</v>
       </c>
-    </row>
-    <row r="858" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U857">
+        <v>4</v>
+      </c>
+      <c r="V857">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="858" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A858" t="s">
         <v>1</v>
       </c>
@@ -36107,8 +37097,14 @@
       <c r="R858">
         <v>8.85</v>
       </c>
-    </row>
-    <row r="859" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U858">
+        <v>1</v>
+      </c>
+      <c r="V858">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="859" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A859" t="s">
         <v>1</v>
       </c>
@@ -36151,8 +37147,14 @@
       <c r="R859">
         <v>42.05</v>
       </c>
-    </row>
-    <row r="860" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U859">
+        <v>4</v>
+      </c>
+      <c r="V859">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="860" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A860" t="s">
         <v>1</v>
       </c>
@@ -36195,8 +37197,14 @@
       <c r="R860">
         <v>8.1</v>
       </c>
-    </row>
-    <row r="861" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U860">
+        <v>1</v>
+      </c>
+      <c r="V860">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="861" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A861" t="s">
         <v>1</v>
       </c>
@@ -36239,8 +37247,14 @@
       <c r="R861">
         <v>37.833333333333336</v>
       </c>
-    </row>
-    <row r="862" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U861">
+        <v>4</v>
+      </c>
+      <c r="V861">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="862" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A862" t="s">
         <v>1</v>
       </c>
@@ -36283,8 +37297,14 @@
       <c r="R862">
         <v>8.0333333333333332</v>
       </c>
-    </row>
-    <row r="863" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U862">
+        <v>1</v>
+      </c>
+      <c r="V862">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="863" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A863" t="s">
         <v>1</v>
       </c>
@@ -36327,8 +37347,14 @@
       <c r="R863">
         <v>38.466666666666669</v>
       </c>
-    </row>
-    <row r="864" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U863">
+        <v>4</v>
+      </c>
+      <c r="V863">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="864" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A864" t="s">
         <v>1</v>
       </c>
@@ -36371,8 +37397,14 @@
       <c r="R864">
         <v>7.9666666666666668</v>
       </c>
-    </row>
-    <row r="865" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U864">
+        <v>1</v>
+      </c>
+      <c r="V864">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="865" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A865" t="s">
         <v>1</v>
       </c>
@@ -36415,8 +37447,14 @@
       <c r="R865">
         <v>40.15</v>
       </c>
-    </row>
-    <row r="866" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U865">
+        <v>4</v>
+      </c>
+      <c r="V865">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="866" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A866" t="s">
         <v>1</v>
       </c>
@@ -36459,8 +37497,14 @@
       <c r="R866">
         <v>6.7</v>
       </c>
-    </row>
-    <row r="867" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U866">
+        <v>1</v>
+      </c>
+      <c r="V866">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="867" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A867" t="s">
         <v>1</v>
       </c>
@@ -36503,8 +37547,14 @@
       <c r="R867">
         <v>36.200000000000003</v>
       </c>
-    </row>
-    <row r="868" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U867">
+        <v>4</v>
+      </c>
+      <c r="V867">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="868" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A868" t="s">
         <v>1</v>
       </c>
@@ -36547,8 +37597,14 @@
       <c r="R868">
         <v>6.6833333333333336</v>
       </c>
-    </row>
-    <row r="869" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U868">
+        <v>1</v>
+      </c>
+      <c r="V868">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="869" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A869" t="s">
         <v>1</v>
       </c>
@@ -36591,8 +37647,14 @@
       <c r="R869">
         <v>36.016666666666666</v>
       </c>
-    </row>
-    <row r="870" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U869">
+        <v>4</v>
+      </c>
+      <c r="V869">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="870" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A870" t="s">
         <v>1</v>
       </c>
@@ -36635,8 +37697,14 @@
       <c r="R870">
         <v>6.6833333333333336</v>
       </c>
-    </row>
-    <row r="871" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U870">
+        <v>1</v>
+      </c>
+      <c r="V870">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="871" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A871" t="s">
         <v>1</v>
       </c>
@@ -36679,8 +37747,14 @@
       <c r="R871">
         <v>35.06666666666667</v>
       </c>
-    </row>
-    <row r="872" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U871">
+        <v>4</v>
+      </c>
+      <c r="V871">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="872" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A872" t="s">
         <v>1</v>
       </c>
@@ -36723,8 +37797,14 @@
       <c r="R872">
         <v>6.6833333333333336</v>
       </c>
-    </row>
-    <row r="873" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U872">
+        <v>1</v>
+      </c>
+      <c r="V872">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="873" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A873" t="s">
         <v>1</v>
       </c>
@@ -36767,8 +37847,14 @@
       <c r="R873">
         <v>33.333333333333336</v>
       </c>
-    </row>
-    <row r="874" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U873">
+        <v>4</v>
+      </c>
+      <c r="V873">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="874" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A874" t="s">
         <v>1</v>
       </c>
@@ -36811,8 +37897,14 @@
       <c r="R874">
         <v>6.6833333333333336</v>
       </c>
-    </row>
-    <row r="875" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U874">
+        <v>1</v>
+      </c>
+      <c r="V874">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="875" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A875" t="s">
         <v>1</v>
       </c>
@@ -36855,8 +37947,14 @@
       <c r="R875">
         <v>32.916666666666664</v>
       </c>
-    </row>
-    <row r="876" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U875">
+        <v>4</v>
+      </c>
+      <c r="V875">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="876" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A876" t="s">
         <v>1</v>
       </c>
@@ -36899,8 +37997,14 @@
       <c r="R876">
         <v>6.6833333333333336</v>
       </c>
-    </row>
-    <row r="877" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U876">
+        <v>1</v>
+      </c>
+      <c r="V876">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="877" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A877" t="s">
         <v>1</v>
       </c>
@@ -36943,8 +38047,14 @@
       <c r="R877">
         <v>33.4</v>
       </c>
-    </row>
-    <row r="878" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U877">
+        <v>4</v>
+      </c>
+      <c r="V877">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="878" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A878" t="s">
         <v>1</v>
       </c>
@@ -36987,8 +38097,14 @@
       <c r="R878">
         <v>6.6833333333333336</v>
       </c>
-    </row>
-    <row r="879" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U878">
+        <v>1</v>
+      </c>
+      <c r="V878">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="879" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A879" t="s">
         <v>1</v>
       </c>
@@ -37031,8 +38147,14 @@
       <c r="R879">
         <v>32.916666666666664</v>
       </c>
-    </row>
-    <row r="880" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U879">
+        <v>4</v>
+      </c>
+      <c r="V879">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="880" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A880" t="s">
         <v>1</v>
       </c>
@@ -37075,8 +38197,14 @@
       <c r="R880">
         <v>6.95</v>
       </c>
-    </row>
-    <row r="881" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U880">
+        <v>1</v>
+      </c>
+      <c r="V880">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="881" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A881" t="s">
         <v>1</v>
       </c>
@@ -37119,8 +38247,14 @@
       <c r="R881">
         <v>32.916666666666664</v>
       </c>
-    </row>
-    <row r="882" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U881">
+        <v>4</v>
+      </c>
+      <c r="V881">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="882" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A882" t="s">
         <v>1</v>
       </c>
@@ -37163,8 +38297,14 @@
       <c r="R882">
         <v>6.7166666666666668</v>
       </c>
-    </row>
-    <row r="883" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U882">
+        <v>1</v>
+      </c>
+      <c r="V882">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="883" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A883" t="s">
         <v>1</v>
       </c>
@@ -37207,8 +38347,14 @@
       <c r="R883">
         <v>33.200000000000003</v>
       </c>
-    </row>
-    <row r="884" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U883">
+        <v>4</v>
+      </c>
+      <c r="V883">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="884" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A884" t="s">
         <v>1</v>
       </c>
@@ -37251,8 +38397,14 @@
       <c r="R884">
         <v>6.6833333333333336</v>
       </c>
-    </row>
-    <row r="885" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U884">
+        <v>1</v>
+      </c>
+      <c r="V884">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="885" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A885" t="s">
         <v>1</v>
       </c>
@@ -37295,8 +38447,14 @@
       <c r="R885">
         <v>33.85</v>
       </c>
-    </row>
-    <row r="886" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U885">
+        <v>4</v>
+      </c>
+      <c r="V885">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="886" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A886" t="s">
         <v>1</v>
       </c>
@@ -37339,8 +38497,14 @@
       <c r="R886">
         <v>6.6833333333333336</v>
       </c>
-    </row>
-    <row r="887" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U886">
+        <v>1</v>
+      </c>
+      <c r="V886">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="887" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A887" t="s">
         <v>1</v>
       </c>
@@ -37383,8 +38547,14 @@
       <c r="R887">
         <v>34.25</v>
       </c>
-    </row>
-    <row r="888" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U887">
+        <v>4</v>
+      </c>
+      <c r="V887">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="888" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A888" t="s">
         <v>1</v>
       </c>
@@ -37427,8 +38597,14 @@
       <c r="R888">
         <v>6.7333333333333334</v>
       </c>
-    </row>
-    <row r="889" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U888">
+        <v>1</v>
+      </c>
+      <c r="V888">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="889" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A889" t="s">
         <v>1</v>
       </c>
@@ -37471,8 +38647,14 @@
       <c r="R889">
         <v>33.366666666666667</v>
       </c>
-    </row>
-    <row r="890" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U889">
+        <v>4</v>
+      </c>
+      <c r="V889">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="890" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A890" t="s">
         <v>1</v>
       </c>
@@ -37515,8 +38697,14 @@
       <c r="R890">
         <v>6.6833333333333336</v>
       </c>
-    </row>
-    <row r="891" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U890">
+        <v>1</v>
+      </c>
+      <c r="V890">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="891" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A891" t="s">
         <v>1</v>
       </c>
@@ -37559,8 +38747,14 @@
       <c r="R891">
         <v>32.483333333333334</v>
       </c>
-    </row>
-    <row r="892" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U891">
+        <v>4</v>
+      </c>
+      <c r="V891">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="892" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A892" t="s">
         <v>1</v>
       </c>
@@ -37603,8 +38797,14 @@
       <c r="R892">
         <v>7.1333333333333337</v>
       </c>
-    </row>
-    <row r="893" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U892">
+        <v>1</v>
+      </c>
+      <c r="V892">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="893" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A893" t="s">
         <v>1</v>
       </c>
@@ -37647,8 +38847,14 @@
       <c r="R893">
         <v>34.5</v>
       </c>
-    </row>
-    <row r="894" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U893">
+        <v>4</v>
+      </c>
+      <c r="V893">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="894" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A894" t="s">
         <v>1</v>
       </c>
@@ -37691,8 +38897,14 @@
       <c r="R894">
         <v>6.7833333333333332</v>
       </c>
-    </row>
-    <row r="895" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U894">
+        <v>1</v>
+      </c>
+      <c r="V894">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="895" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A895" t="s">
         <v>1</v>
       </c>
@@ -37735,8 +38947,14 @@
       <c r="R895">
         <v>34.4</v>
       </c>
-    </row>
-    <row r="896" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U895">
+        <v>4</v>
+      </c>
+      <c r="V895">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="896" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A896" t="s">
         <v>1</v>
       </c>
@@ -37779,8 +38997,14 @@
       <c r="R896">
         <v>7.75</v>
       </c>
-    </row>
-    <row r="897" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U896">
+        <v>1</v>
+      </c>
+      <c r="V896">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="897" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A897" t="s">
         <v>1</v>
       </c>
@@ -37823,8 +39047,14 @@
       <c r="R897">
         <v>33.733333333333334</v>
       </c>
-    </row>
-    <row r="898" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U897">
+        <v>4</v>
+      </c>
+      <c r="V897">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="898" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A898" t="s">
         <v>1</v>
       </c>
@@ -37867,8 +39097,14 @@
       <c r="R898">
         <v>7.05</v>
       </c>
-    </row>
-    <row r="899" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U898">
+        <v>1</v>
+      </c>
+      <c r="V898">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="899" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A899" t="s">
         <v>1</v>
       </c>
@@ -37911,8 +39147,14 @@
       <c r="R899">
         <v>34.366666666666667</v>
       </c>
-    </row>
-    <row r="900" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U899">
+        <v>4</v>
+      </c>
+      <c r="V899">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="900" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A900" t="s">
         <v>1</v>
       </c>
@@ -37955,8 +39197,14 @@
       <c r="R900">
         <v>7.2666666666666666</v>
       </c>
-    </row>
-    <row r="901" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U900">
+        <v>1</v>
+      </c>
+      <c r="V900">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="901" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A901" t="s">
         <v>1</v>
       </c>
@@ -37999,8 +39247,14 @@
       <c r="R901">
         <v>33.216666666666669</v>
       </c>
-    </row>
-    <row r="902" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U901">
+        <v>4</v>
+      </c>
+      <c r="V901">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="902" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A902" t="s">
         <v>1</v>
       </c>
@@ -38043,8 +39297,14 @@
       <c r="R902">
         <v>6.8666666666666663</v>
       </c>
-    </row>
-    <row r="903" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U902">
+        <v>1</v>
+      </c>
+      <c r="V902">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="903" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A903" t="s">
         <v>1</v>
       </c>
@@ -38087,8 +39347,14 @@
       <c r="R903">
         <v>35.65</v>
       </c>
-    </row>
-    <row r="904" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U903">
+        <v>4</v>
+      </c>
+      <c r="V903">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="904" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A904" t="s">
         <v>1</v>
       </c>
@@ -38131,8 +39397,14 @@
       <c r="R904">
         <v>7.2666666666666666</v>
       </c>
-    </row>
-    <row r="905" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U904">
+        <v>1</v>
+      </c>
+      <c r="V904">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="905" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A905" t="s">
         <v>1</v>
       </c>
@@ -38175,8 +39447,14 @@
       <c r="R905">
         <v>35.083333333333336</v>
       </c>
-    </row>
-    <row r="906" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U905">
+        <v>4</v>
+      </c>
+      <c r="V905">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="906" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A906" t="s">
         <v>1</v>
       </c>
@@ -38219,8 +39497,14 @@
       <c r="R906">
         <v>9.2666666666666675</v>
       </c>
-    </row>
-    <row r="907" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U906">
+        <v>1</v>
+      </c>
+      <c r="V906">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="907" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A907" t="s">
         <v>1</v>
       </c>
@@ -38263,8 +39547,14 @@
       <c r="R907">
         <v>35.133333333333333</v>
       </c>
-    </row>
-    <row r="908" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U907">
+        <v>4</v>
+      </c>
+      <c r="V907">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="908" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A908" t="s">
         <v>1</v>
       </c>
@@ -38307,8 +39597,14 @@
       <c r="R908">
         <v>11.433333333333334</v>
       </c>
-    </row>
-    <row r="909" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U908">
+        <v>1</v>
+      </c>
+      <c r="V908">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="909" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A909" t="s">
         <v>1</v>
       </c>
@@ -38351,8 +39647,14 @@
       <c r="R909">
         <v>37.333333333333336</v>
       </c>
-    </row>
-    <row r="910" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U909">
+        <v>4</v>
+      </c>
+      <c r="V909">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="910" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A910" t="s">
         <v>1</v>
       </c>
@@ -38395,8 +39697,14 @@
       <c r="R910">
         <v>8.4499999999999993</v>
       </c>
-    </row>
-    <row r="911" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U910">
+        <v>1</v>
+      </c>
+      <c r="V910">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="911" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A911" t="s">
         <v>1</v>
       </c>
@@ -38439,8 +39747,14 @@
       <c r="R911">
         <v>37.75</v>
       </c>
-    </row>
-    <row r="912" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U911">
+        <v>4</v>
+      </c>
+      <c r="V911">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="912" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A912" t="s">
         <v>1</v>
       </c>
@@ -38483,8 +39797,14 @@
       <c r="R912">
         <v>8.0333333333333332</v>
       </c>
-    </row>
-    <row r="913" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U912">
+        <v>1</v>
+      </c>
+      <c r="V912">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="913" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A913" t="s">
         <v>1</v>
       </c>
@@ -38527,8 +39847,14 @@
       <c r="R913">
         <v>39.200000000000003</v>
       </c>
-    </row>
-    <row r="914" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U913">
+        <v>4</v>
+      </c>
+      <c r="V913">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="914" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A914" t="s">
         <v>1</v>
       </c>
@@ -38571,8 +39897,14 @@
       <c r="R914">
         <v>8.0166666666666675</v>
       </c>
-    </row>
-    <row r="915" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U914">
+        <v>1</v>
+      </c>
+      <c r="V914">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="915" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A915" t="s">
         <v>1</v>
       </c>
@@ -38615,8 +39947,14 @@
       <c r="R915">
         <v>38.366666666666667</v>
       </c>
-    </row>
-    <row r="916" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U915">
+        <v>4</v>
+      </c>
+      <c r="V915">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="916" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A916" t="s">
         <v>1</v>
       </c>
@@ -38659,8 +39997,14 @@
       <c r="R916">
         <v>11.3</v>
       </c>
-    </row>
-    <row r="917" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U916">
+        <v>1</v>
+      </c>
+      <c r="V916">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="917" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A917" t="s">
         <v>1</v>
       </c>
@@ -38703,8 +40047,14 @@
       <c r="R917">
         <v>39.81666666666667</v>
       </c>
-    </row>
-    <row r="918" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U917">
+        <v>4</v>
+      </c>
+      <c r="V917">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="918" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A918" t="s">
         <v>1</v>
       </c>
@@ -38747,8 +40097,14 @@
       <c r="R918">
         <v>9.9166666666666661</v>
       </c>
-    </row>
-    <row r="919" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U918">
+        <v>1</v>
+      </c>
+      <c r="V918">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="919" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A919" t="s">
         <v>1</v>
       </c>
@@ -38791,8 +40147,14 @@
       <c r="R919">
         <v>40.283333333333331</v>
       </c>
-    </row>
-    <row r="920" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U919">
+        <v>4</v>
+      </c>
+      <c r="V919">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="920" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A920" t="s">
         <v>1</v>
       </c>
@@ -38835,8 +40197,14 @@
       <c r="R920">
         <v>11.916666666666666</v>
       </c>
-    </row>
-    <row r="921" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U920">
+        <v>1</v>
+      </c>
+      <c r="V920">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="921" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A921" t="s">
         <v>1</v>
       </c>
@@ -38879,8 +40247,14 @@
       <c r="R921">
         <v>42.733333333333334</v>
       </c>
-    </row>
-    <row r="922" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U921">
+        <v>4</v>
+      </c>
+      <c r="V921">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="922" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A922" t="s">
         <v>1</v>
       </c>
@@ -38923,8 +40297,14 @@
       <c r="R922">
         <v>12.183333333333334</v>
       </c>
-    </row>
-    <row r="923" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U922">
+        <v>1</v>
+      </c>
+      <c r="V922">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="923" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A923" t="s">
         <v>1</v>
       </c>
@@ -38967,8 +40347,14 @@
       <c r="R923">
         <v>46.483333333333334</v>
       </c>
-    </row>
-    <row r="924" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U923">
+        <v>4</v>
+      </c>
+      <c r="V923">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="924" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A924" t="s">
         <v>1</v>
       </c>
@@ -39011,8 +40397,14 @@
       <c r="R924">
         <v>12.683333333333334</v>
       </c>
-    </row>
-    <row r="925" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U924">
+        <v>1</v>
+      </c>
+      <c r="V924">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="925" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A925" t="s">
         <v>1</v>
       </c>
@@ -39055,8 +40447,14 @@
       <c r="R925">
         <v>46.5</v>
       </c>
-    </row>
-    <row r="926" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U925">
+        <v>4</v>
+      </c>
+      <c r="V925">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="926" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A926" t="s">
         <v>1</v>
       </c>
@@ -39099,8 +40497,14 @@
       <c r="R926">
         <v>12.516666666666667</v>
       </c>
-    </row>
-    <row r="927" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U926">
+        <v>1</v>
+      </c>
+      <c r="V926">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="927" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A927" t="s">
         <v>1</v>
       </c>
@@ -39143,8 +40547,14 @@
       <c r="R927">
         <v>50.35</v>
       </c>
-    </row>
-    <row r="928" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U927">
+        <v>4</v>
+      </c>
+      <c r="V927">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="928" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A928" t="s">
         <v>1</v>
       </c>
@@ -39187,8 +40597,14 @@
       <c r="R928">
         <v>12.566666666666666</v>
       </c>
-    </row>
-    <row r="929" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U928">
+        <v>1</v>
+      </c>
+      <c r="V928">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="929" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A929" t="s">
         <v>1</v>
       </c>
@@ -39231,8 +40647,14 @@
       <c r="R929">
         <v>53.9</v>
       </c>
-    </row>
-    <row r="930" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U929">
+        <v>4</v>
+      </c>
+      <c r="V929">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="930" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A930" t="s">
         <v>1</v>
       </c>
@@ -39275,8 +40697,14 @@
       <c r="R930">
         <v>10.866666666666667</v>
       </c>
-    </row>
-    <row r="931" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U930">
+        <v>1</v>
+      </c>
+      <c r="V930">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="931" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A931" t="s">
         <v>1</v>
       </c>
@@ -39319,8 +40747,14 @@
       <c r="R931">
         <v>54.68333333333333</v>
       </c>
-    </row>
-    <row r="932" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U931">
+        <v>4</v>
+      </c>
+      <c r="V931">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="932" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A932" t="s">
         <v>1</v>
       </c>
@@ -39363,8 +40797,14 @@
       <c r="R932">
         <v>9.75</v>
       </c>
-    </row>
-    <row r="933" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U932">
+        <v>1</v>
+      </c>
+      <c r="V932">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="933" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A933" t="s">
         <v>1</v>
       </c>
@@ -39407,8 +40847,14 @@
       <c r="R933">
         <v>49.383333333333333</v>
       </c>
-    </row>
-    <row r="934" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U933">
+        <v>4</v>
+      </c>
+      <c r="V933">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="934" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A934" t="s">
         <v>1</v>
       </c>
@@ -39451,8 +40897,14 @@
       <c r="R934">
         <v>9.7333333333333325</v>
       </c>
-    </row>
-    <row r="935" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U934">
+        <v>1</v>
+      </c>
+      <c r="V934">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="935" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A935" t="s">
         <v>1</v>
       </c>
@@ -39495,8 +40947,14 @@
       <c r="R935">
         <v>47.31666666666667</v>
       </c>
-    </row>
-    <row r="936" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U935">
+        <v>4</v>
+      </c>
+      <c r="V935">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="936" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A936" t="s">
         <v>1</v>
       </c>
@@ -39539,8 +40997,14 @@
       <c r="R936">
         <v>9.2666666666666675</v>
       </c>
-    </row>
-    <row r="937" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U936">
+        <v>1</v>
+      </c>
+      <c r="V936">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="937" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A937" t="s">
         <v>1</v>
       </c>
@@ -39583,8 +41047,14 @@
       <c r="R937">
         <v>41.9</v>
       </c>
-    </row>
-    <row r="938" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U937">
+        <v>4</v>
+      </c>
+      <c r="V937">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="938" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A938" t="s">
         <v>1</v>
       </c>
@@ -39627,8 +41097,14 @@
       <c r="R938">
         <v>6.8</v>
       </c>
-    </row>
-    <row r="939" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U938">
+        <v>1</v>
+      </c>
+      <c r="V938">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="939" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A939" t="s">
         <v>1</v>
       </c>
@@ -39671,8 +41147,14 @@
       <c r="R939">
         <v>39.733333333333334</v>
       </c>
-    </row>
-    <row r="940" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U939">
+        <v>4</v>
+      </c>
+      <c r="V939">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="940" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A940" t="s">
         <v>1</v>
       </c>
@@ -39715,8 +41197,14 @@
       <c r="R940">
         <v>6.6833333333333336</v>
       </c>
-    </row>
-    <row r="941" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U940">
+        <v>1</v>
+      </c>
+      <c r="V940">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="941" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A941" t="s">
         <v>1</v>
       </c>
@@ -39759,8 +41247,14 @@
       <c r="R941">
         <v>37.18333333333333</v>
       </c>
-    </row>
-    <row r="942" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U941">
+        <v>4</v>
+      </c>
+      <c r="V941">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="942" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A942" t="s">
         <v>1</v>
       </c>
@@ -39803,8 +41297,14 @@
       <c r="R942">
         <v>6.6833333333333336</v>
       </c>
-    </row>
-    <row r="943" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U942">
+        <v>1</v>
+      </c>
+      <c r="V942">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="943" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A943" t="s">
         <v>1</v>
       </c>
@@ -39847,8 +41347,14 @@
       <c r="R943">
         <v>36.56666666666667</v>
       </c>
-    </row>
-    <row r="944" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U943">
+        <v>4</v>
+      </c>
+      <c r="V943">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="944" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A944" t="s">
         <v>1</v>
       </c>
@@ -39891,8 +41397,14 @@
       <c r="R944">
         <v>6.6833333333333336</v>
       </c>
-    </row>
-    <row r="945" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U944">
+        <v>1</v>
+      </c>
+      <c r="V944">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="945" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A945" t="s">
         <v>1</v>
       </c>
@@ -39935,8 +41447,14 @@
       <c r="R945">
         <v>34.18333333333333</v>
       </c>
-    </row>
-    <row r="946" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U945">
+        <v>4</v>
+      </c>
+      <c r="V945">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="946" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A946" t="s">
         <v>1</v>
       </c>
@@ -39979,8 +41497,14 @@
       <c r="R946">
         <v>6.6833333333333336</v>
       </c>
-    </row>
-    <row r="947" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U946">
+        <v>1</v>
+      </c>
+      <c r="V946">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="947" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A947" t="s">
         <v>1</v>
       </c>
@@ -40023,8 +41547,14 @@
       <c r="R947">
         <v>32.516666666666666</v>
       </c>
-    </row>
-    <row r="948" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U947">
+        <v>4</v>
+      </c>
+      <c r="V947">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="948" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A948" t="s">
         <v>1</v>
       </c>
@@ -40067,8 +41597,14 @@
       <c r="R948">
         <v>6.6833333333333336</v>
       </c>
-    </row>
-    <row r="949" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U948">
+        <v>1</v>
+      </c>
+      <c r="V948">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="949" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A949" t="s">
         <v>1</v>
       </c>
@@ -40111,8 +41647,14 @@
       <c r="R949">
         <v>34.233333333333334</v>
       </c>
-    </row>
-    <row r="950" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U949">
+        <v>4</v>
+      </c>
+      <c r="V949">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="950" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A950" t="s">
         <v>1</v>
       </c>
@@ -40155,8 +41697,14 @@
       <c r="R950">
         <v>6.6833333333333336</v>
       </c>
-    </row>
-    <row r="951" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U950">
+        <v>1</v>
+      </c>
+      <c r="V950">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="951" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A951" t="s">
         <v>1</v>
       </c>
@@ -40199,8 +41747,14 @@
       <c r="R951">
         <v>32.166666666666664</v>
       </c>
-    </row>
-    <row r="952" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U951">
+        <v>4</v>
+      </c>
+      <c r="V951">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="952" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A952" t="s">
         <v>1</v>
       </c>
@@ -40243,8 +41797,14 @@
       <c r="R952">
         <v>6.6833333333333336</v>
       </c>
-    </row>
-    <row r="953" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U952">
+        <v>1</v>
+      </c>
+      <c r="V952">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="953" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A953" t="s">
         <v>1</v>
       </c>
@@ -40287,8 +41847,14 @@
       <c r="R953">
         <v>33.383333333333333</v>
       </c>
-    </row>
-    <row r="954" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U953">
+        <v>4</v>
+      </c>
+      <c r="V953">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="954" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A954" t="s">
         <v>1</v>
       </c>
@@ -40331,8 +41897,14 @@
       <c r="R954">
         <v>6.6833333333333336</v>
       </c>
-    </row>
-    <row r="955" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U954">
+        <v>1</v>
+      </c>
+      <c r="V954">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="955" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A955" t="s">
         <v>1</v>
       </c>
@@ -40375,8 +41947,14 @@
       <c r="R955">
         <v>33.56666666666667</v>
       </c>
-    </row>
-    <row r="956" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U955">
+        <v>4</v>
+      </c>
+      <c r="V955">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="956" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A956" t="s">
         <v>1</v>
       </c>
@@ -40419,8 +41997,14 @@
       <c r="R956">
         <v>6.6833333333333336</v>
       </c>
-    </row>
-    <row r="957" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U956">
+        <v>1</v>
+      </c>
+      <c r="V956">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="957" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A957" t="s">
         <v>1</v>
       </c>
@@ -40463,8 +42047,14 @@
       <c r="R957">
         <v>33.233333333333334</v>
       </c>
-    </row>
-    <row r="958" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U957">
+        <v>4</v>
+      </c>
+      <c r="V957">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="958" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A958" t="s">
         <v>1</v>
       </c>
@@ -40507,8 +42097,14 @@
       <c r="R958">
         <v>6.6833333333333336</v>
       </c>
-    </row>
-    <row r="959" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U958">
+        <v>1</v>
+      </c>
+      <c r="V958">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="959" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A959" t="s">
         <v>1</v>
       </c>
@@ -40551,8 +42147,14 @@
       <c r="R959">
         <v>32.283333333333331</v>
       </c>
-    </row>
-    <row r="960" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U959">
+        <v>4</v>
+      </c>
+      <c r="V959">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="960" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A960" t="s">
         <v>1</v>
       </c>
@@ -40595,8 +42197,14 @@
       <c r="R960">
         <v>6.6833333333333336</v>
       </c>
-    </row>
-    <row r="961" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U960">
+        <v>1</v>
+      </c>
+      <c r="V960">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="961" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A961" t="s">
         <v>1</v>
       </c>
@@ -40639,8 +42247,14 @@
       <c r="R961">
         <v>32.31666666666667</v>
       </c>
-    </row>
-    <row r="962" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U961">
+        <v>4</v>
+      </c>
+      <c r="V961">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="962" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A962" t="s">
         <v>1</v>
       </c>
@@ -40683,8 +42297,14 @@
       <c r="R962">
         <v>6.6833333333333336</v>
       </c>
-    </row>
-    <row r="963" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U962">
+        <v>1</v>
+      </c>
+      <c r="V962">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="963" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A963" t="s">
         <v>1</v>
       </c>
@@ -40727,8 +42347,14 @@
       <c r="R963">
         <v>33.383333333333333</v>
       </c>
-    </row>
-    <row r="964" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U963">
+        <v>4</v>
+      </c>
+      <c r="V963">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="964" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A964" t="s">
         <v>1</v>
       </c>
@@ -40771,8 +42397,14 @@
       <c r="R964">
         <v>6.6833333333333336</v>
       </c>
-    </row>
-    <row r="965" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U964">
+        <v>1</v>
+      </c>
+      <c r="V964">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="965" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A965" t="s">
         <v>1</v>
       </c>
@@ -40815,8 +42447,14 @@
       <c r="R965">
         <v>32.6</v>
       </c>
-    </row>
-    <row r="966" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U965">
+        <v>4</v>
+      </c>
+      <c r="V965">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="966" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A966" t="s">
         <v>1</v>
       </c>
@@ -40859,8 +42497,14 @@
       <c r="R966">
         <v>6.6833333333333336</v>
       </c>
-    </row>
-    <row r="967" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U966">
+        <v>1</v>
+      </c>
+      <c r="V966">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="967" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A967" t="s">
         <v>1</v>
       </c>
@@ -40902,6 +42546,12 @@
       </c>
       <c r="R967">
         <v>33.15</v>
+      </c>
+      <c r="U967">
+        <v>4</v>
+      </c>
+      <c r="V967">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
